--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6698" uniqueCount="5174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="5176">
   <si>
     <t>Address</t>
   </si>
@@ -12863,6 +12863,12 @@
   </si>
   <si>
     <t>Multiple tools for DS file extraction</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20071019214730/http://kodewerx.net/forum/viewtopic.php?f=19&amp;t=4440</t>
+  </si>
+  <si>
+    <t>Action replay codes, some of the codes found here don't seem to be available anywhere else.</t>
   </si>
   <si>
     <t>Save Files</t>
@@ -20301,13 +20307,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>4654</v>
+        <v>4656</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>4655</v>
+        <v>4657</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>4308</v>
+        <v>4310</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>4250</v>
@@ -20315,331 +20321,331 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>4656</v>
+        <v>4658</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>4657</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>4658</v>
+        <v>4660</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>4659</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>4660</v>
+        <v>4662</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>4661</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>4662</v>
+        <v>4664</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>4663</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>4664</v>
+        <v>4666</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>4665</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>4666</v>
+        <v>4668</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>4667</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>4668</v>
+        <v>4670</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>4669</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>4670</v>
+        <v>4672</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>4671</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>4672</v>
+        <v>4674</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>4673</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>4674</v>
+        <v>4676</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>4675</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>4676</v>
+        <v>4678</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>4677</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>4678</v>
+        <v>4680</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>4679</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>4680</v>
+        <v>4682</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>4681</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>4682</v>
+        <v>4684</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>4683</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>4684</v>
+        <v>4686</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>4685</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>4686</v>
+        <v>4688</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>4687</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="33" t="s">
-        <v>4688</v>
+        <v>4690</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>4689</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>4690</v>
+        <v>4692</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>4691</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>4692</v>
+        <v>4694</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>4693</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>4694</v>
+        <v>4696</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>4695</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
-        <v>4696</v>
+        <v>4698</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>4697</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>4698</v>
+        <v>4700</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>4699</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>4700</v>
+        <v>4702</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>4701</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>4702</v>
+        <v>4704</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>4703</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>4704</v>
+        <v>4706</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>4705</v>
+        <v>4707</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>4706</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>4707</v>
+        <v>4709</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>4708</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>4709</v>
+        <v>4711</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>4710</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>4711</v>
+        <v>4713</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>4711</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>4712</v>
+        <v>4714</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>4713</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>4714</v>
+        <v>4716</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>4715</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="33" t="s">
-        <v>4716</v>
+        <v>4718</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>4717</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>4718</v>
+        <v>4720</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>4719</v>
+        <v>4721</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>4720</v>
+        <v>4722</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>4721</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
-        <v>4722</v>
+        <v>4724</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>4723</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>4724</v>
+        <v>4726</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>4725</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="33" t="s">
-        <v>4726</v>
+        <v>4728</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>4727</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="33" t="s">
-        <v>4728</v>
+        <v>4730</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>4729</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="33" t="s">
-        <v>4730</v>
+        <v>4732</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>4731</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
-        <v>4732</v>
+        <v>4734</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>4733</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>4734</v>
+        <v>4736</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>4735</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>4736</v>
+        <v>4738</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>4737</v>
+        <v>4739</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>1340</v>
@@ -20647,1650 +20653,1650 @@
     </row>
     <row r="42">
       <c r="A42" s="33" t="s">
-        <v>4738</v>
+        <v>4740</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>4739</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
-        <v>4740</v>
+        <v>4742</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>4741</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="33" t="s">
-        <v>4742</v>
+        <v>4744</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>4743</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="33" t="s">
-        <v>4744</v>
+        <v>4746</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>4745</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="33" t="s">
-        <v>4746</v>
+        <v>4748</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>4747</v>
+        <v>4749</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>4748</v>
+        <v>4750</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>4749</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="33" t="s">
-        <v>4750</v>
+        <v>4752</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>4751</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="33" t="s">
-        <v>4752</v>
+        <v>4754</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>4753</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="33" t="s">
-        <v>4754</v>
+        <v>4756</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>4755</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="33" t="s">
-        <v>4756</v>
+        <v>4758</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>4757</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="33" t="s">
-        <v>4758</v>
+        <v>4760</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>4759</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="33" t="s">
-        <v>4760</v>
+        <v>4762</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>4761</v>
+        <v>4763</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>4762</v>
+        <v>4764</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>4763</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="33" t="s">
-        <v>4764</v>
+        <v>4766</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>4765</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="33" t="s">
-        <v>4766</v>
+        <v>4768</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>4767</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="33" t="s">
-        <v>4768</v>
+        <v>4770</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>4769</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="33" t="s">
-        <v>4770</v>
+        <v>4772</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>4771</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="33" t="s">
-        <v>4772</v>
+        <v>4774</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>4773</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="33" t="s">
-        <v>4774</v>
+        <v>4776</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>4775</v>
+        <v>4777</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>4776</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="33" t="s">
-        <v>4777</v>
+        <v>4779</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>4778</v>
+        <v>4780</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>4779</v>
+        <v>4781</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>4780</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="33" t="s">
-        <v>4781</v>
+        <v>4783</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>4782</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="33" t="s">
-        <v>4783</v>
+        <v>4785</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>4784</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="33" t="s">
-        <v>4785</v>
+        <v>4787</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>4786</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="33" t="s">
-        <v>4787</v>
+        <v>4789</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>4788</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="33" t="s">
-        <v>4789</v>
+        <v>4791</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>4789</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="33" t="s">
-        <v>4790</v>
+        <v>4792</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>4790</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="33" t="s">
-        <v>4791</v>
+        <v>4793</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>4792</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="33" t="s">
-        <v>4793</v>
+        <v>4795</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>4794</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="33" t="s">
-        <v>4795</v>
+        <v>4797</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>4796</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="33" t="s">
-        <v>4797</v>
+        <v>4799</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>4798</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="33" t="s">
-        <v>4799</v>
+        <v>4801</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>4800</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="33" t="s">
-        <v>4801</v>
+        <v>4803</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>4802</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="33" t="s">
-        <v>4803</v>
+        <v>4805</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>4804</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="33" t="s">
-        <v>4805</v>
+        <v>4807</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>4806</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="33" t="s">
-        <v>4807</v>
+        <v>4809</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>4808</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="33" t="s">
-        <v>4809</v>
+        <v>4811</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>4810</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="33" t="s">
-        <v>4811</v>
+        <v>4813</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>4812</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="33" t="s">
-        <v>4813</v>
+        <v>4815</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>4814</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="33" t="s">
-        <v>4815</v>
+        <v>4817</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>4816</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="33" t="s">
-        <v>4817</v>
+        <v>4819</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>4818</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="33" t="s">
-        <v>4819</v>
+        <v>4821</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>4820</v>
+        <v>4822</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>4821</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="33" t="s">
-        <v>4822</v>
+        <v>4824</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>4823</v>
+        <v>4825</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>4824</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="33" t="s">
-        <v>4825</v>
+        <v>4827</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>4826</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="33" t="s">
-        <v>4827</v>
+        <v>4829</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>4828</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="33" t="s">
-        <v>4829</v>
+        <v>4831</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>4830</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="33" t="s">
-        <v>4831</v>
+        <v>4833</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>4832</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="33" t="s">
-        <v>4833</v>
+        <v>4835</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>4834</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="33" t="s">
-        <v>4835</v>
+        <v>4837</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>4836</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="33" t="s">
-        <v>4837</v>
+        <v>4839</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>4838</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="33" t="s">
-        <v>4839</v>
+        <v>4841</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>4839</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="33" t="s">
-        <v>4840</v>
+        <v>4842</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>4841</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="33" t="s">
-        <v>4842</v>
+        <v>4844</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>4843</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="33" t="s">
-        <v>4844</v>
+        <v>4846</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>4845</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="33" t="s">
-        <v>4846</v>
+        <v>4848</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>4847</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="33" t="s">
-        <v>4848</v>
+        <v>4850</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>4849</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="33" t="s">
-        <v>4850</v>
+        <v>4852</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>4851</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="33" t="s">
-        <v>4852</v>
+        <v>4854</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>4853</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="33" t="s">
-        <v>4854</v>
+        <v>4856</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>4855</v>
+        <v>4857</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>4856</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="33" t="s">
-        <v>4857</v>
+        <v>4859</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>4858</v>
+        <v>4860</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>1099</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>4859</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="33" t="s">
-        <v>4860</v>
+        <v>4862</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>4861</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="33" t="s">
-        <v>4862</v>
+        <v>4864</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>4863</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="33" t="s">
-        <v>4864</v>
+        <v>4866</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>4865</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="33" t="s">
-        <v>4866</v>
+        <v>4868</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>4867</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="33" t="s">
-        <v>4868</v>
+        <v>4870</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>4869</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="33" t="s">
-        <v>4870</v>
+        <v>4872</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>4871</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="33" t="s">
-        <v>4872</v>
+        <v>4874</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>4873</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="33" t="s">
-        <v>4874</v>
+        <v>4876</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>4875</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="33" t="s">
-        <v>4876</v>
+        <v>4878</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>4877</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="33" t="s">
-        <v>4878</v>
+        <v>4880</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>4879</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="33" t="s">
-        <v>4880</v>
+        <v>4882</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>4881</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="33" t="s">
-        <v>4882</v>
+        <v>4884</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>4883</v>
+        <v>4885</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>4884</v>
+        <v>4886</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>4885</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="33" t="s">
-        <v>4886</v>
+        <v>4888</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>4887</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="33" t="s">
-        <v>4888</v>
+        <v>4890</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>4889</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="33" t="s">
-        <v>4890</v>
+        <v>4892</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>4891</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="33" t="s">
-        <v>4892</v>
+        <v>4894</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>4893</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="33" t="s">
-        <v>4894</v>
+        <v>4896</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>4895</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="33" t="s">
-        <v>4896</v>
+        <v>4898</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>4897</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="33" t="s">
-        <v>4898</v>
+        <v>4900</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>4899</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="33" t="s">
-        <v>4900</v>
+        <v>4902</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>4901</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="33" t="s">
-        <v>4902</v>
+        <v>4904</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>4903</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="33" t="s">
-        <v>4904</v>
+        <v>4906</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>4905</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="33" t="s">
-        <v>4906</v>
+        <v>4908</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>4907</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="33" t="s">
-        <v>4908</v>
+        <v>4910</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>4909</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="33" t="s">
-        <v>4910</v>
+        <v>4912</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>4911</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="33" t="s">
-        <v>4912</v>
+        <v>4914</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>4913</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="33" t="s">
-        <v>4914</v>
+        <v>4916</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>4915</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="33" t="s">
-        <v>4916</v>
+        <v>4918</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>4917</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="33" t="s">
-        <v>4918</v>
+        <v>4920</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>4919</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="33" t="s">
-        <v>4920</v>
+        <v>4922</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>4921</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="33" t="s">
-        <v>4922</v>
+        <v>4924</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>4923</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="33" t="s">
-        <v>4924</v>
+        <v>4926</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>4925</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="33" t="s">
-        <v>4926</v>
+        <v>4928</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>4927</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="33" t="s">
-        <v>4928</v>
+        <v>4930</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>4929</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="33" t="s">
-        <v>4930</v>
+        <v>4932</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>4931</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="33" t="s">
-        <v>4932</v>
+        <v>4934</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>4933</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="33" t="s">
-        <v>4934</v>
+        <v>4936</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>4935</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="33" t="s">
-        <v>4936</v>
+        <v>4938</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>4937</v>
+        <v>4939</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>4938</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="33" t="s">
-        <v>4939</v>
+        <v>4941</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>4940</v>
+        <v>4942</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>4941</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="33" t="s">
-        <v>4942</v>
+        <v>4944</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>4943</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="33" t="s">
-        <v>4944</v>
+        <v>4946</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>4945</v>
+        <v>4947</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>4946</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="33" t="s">
-        <v>4947</v>
+        <v>4949</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>4948</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="33" t="s">
-        <v>4949</v>
+        <v>4951</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>4950</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="33" t="s">
-        <v>4951</v>
+        <v>4953</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>4952</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="33" t="s">
-        <v>4953</v>
+        <v>4955</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>4954</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="33" t="s">
-        <v>4955</v>
+        <v>4957</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>4956</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="33" t="s">
-        <v>4957</v>
+        <v>4959</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>4958</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="33" t="s">
-        <v>4959</v>
+        <v>4961</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>4960</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="33" t="s">
-        <v>4961</v>
+        <v>4963</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>4962</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="33" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>4964</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="33" t="s">
-        <v>4965</v>
+        <v>4967</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>4966</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="33" t="s">
-        <v>4967</v>
+        <v>4969</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>4968</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="33" t="s">
-        <v>4969</v>
+        <v>4971</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>4970</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="33" t="s">
-        <v>4971</v>
+        <v>4973</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>4972</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="33" t="s">
-        <v>4973</v>
+        <v>4975</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>4974</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="33" t="s">
-        <v>4975</v>
+        <v>4977</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>4976</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="33" t="s">
-        <v>4977</v>
+        <v>4979</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="33" t="s">
-        <v>4979</v>
+        <v>4981</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>4980</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="33" t="s">
-        <v>4981</v>
+        <v>4983</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>4982</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="33" t="s">
-        <v>4983</v>
+        <v>4985</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>4984</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="33" t="s">
-        <v>4985</v>
+        <v>4987</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>4986</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="33" t="s">
-        <v>4987</v>
+        <v>4989</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>4988</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="33" t="s">
-        <v>4989</v>
+        <v>4991</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>4990</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="33" t="s">
-        <v>4991</v>
+        <v>4993</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>4992</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="33" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="33" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>4996</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="33" t="s">
-        <v>4997</v>
+        <v>4999</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>4998</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="33" t="s">
-        <v>4999</v>
+        <v>5001</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>5000</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="33" t="s">
-        <v>5001</v>
+        <v>5003</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>5002</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="33" t="s">
-        <v>5003</v>
+        <v>5005</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>5004</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="33" t="s">
-        <v>5005</v>
+        <v>5007</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>5006</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="33" t="s">
-        <v>5007</v>
+        <v>5009</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>5008</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="33" t="s">
-        <v>5009</v>
+        <v>5011</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>5010</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="33" t="s">
-        <v>5011</v>
+        <v>5013</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>5012</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="33" t="s">
-        <v>5013</v>
+        <v>5015</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>5014</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="33" t="s">
-        <v>5015</v>
+        <v>5017</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>5016</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="33" t="s">
-        <v>5017</v>
+        <v>5019</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>5018</v>
+        <v>5020</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>5019</v>
+        <v>5021</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>5020</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="33" t="s">
-        <v>5021</v>
+        <v>5023</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>5022</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="33" t="s">
-        <v>5023</v>
+        <v>5025</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>5024</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="33" t="s">
-        <v>5025</v>
+        <v>5027</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>5026</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="33" t="s">
-        <v>5027</v>
+        <v>5029</v>
       </c>
       <c r="B179" s="33" t="s">
-        <v>5028</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="33" t="s">
-        <v>5029</v>
+        <v>5031</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>5030</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="33" t="s">
-        <v>5031</v>
+        <v>5033</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>5032</v>
+        <v>5034</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>5033</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="33" t="s">
-        <v>5034</v>
+        <v>5036</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>5035</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="33" t="s">
-        <v>5036</v>
+        <v>5038</v>
       </c>
       <c r="B183" s="33" t="s">
-        <v>5037</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="33" t="s">
-        <v>5038</v>
+        <v>5040</v>
       </c>
       <c r="B184" s="33" t="s">
-        <v>5039</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="33" t="s">
-        <v>5040</v>
+        <v>5042</v>
       </c>
       <c r="B185" s="33" t="s">
-        <v>5041</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="33" t="s">
-        <v>5042</v>
+        <v>5044</v>
       </c>
       <c r="B186" s="33" t="s">
-        <v>5043</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="33" t="s">
-        <v>5044</v>
+        <v>5046</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>5045</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="33" t="s">
-        <v>5046</v>
+        <v>5048</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>5047</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="33" t="s">
-        <v>5048</v>
+        <v>5050</v>
       </c>
       <c r="B189" s="33" t="s">
-        <v>5049</v>
+        <v>5051</v>
       </c>
       <c r="C189" s="33" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="33" t="s">
-        <v>5051</v>
+        <v>5053</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>5052</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="33" t="s">
-        <v>5053</v>
+        <v>5055</v>
       </c>
       <c r="B191" s="33" t="s">
-        <v>5054</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="33" t="s">
-        <v>5055</v>
+        <v>5057</v>
       </c>
       <c r="B192" s="33" t="s">
-        <v>5056</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="33" t="s">
-        <v>5057</v>
+        <v>5059</v>
       </c>
       <c r="B193" s="33" t="s">
-        <v>5058</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="33" t="s">
-        <v>5059</v>
+        <v>5061</v>
       </c>
       <c r="B194" s="33" t="s">
-        <v>5060</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="33" t="s">
-        <v>5061</v>
+        <v>5063</v>
       </c>
       <c r="B195" s="33" t="s">
-        <v>5061</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="33" t="s">
-        <v>5062</v>
+        <v>5064</v>
       </c>
       <c r="B196" s="33" t="s">
-        <v>5063</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="33" t="s">
-        <v>5064</v>
+        <v>5066</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>5065</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="33" t="s">
-        <v>5066</v>
+        <v>5068</v>
       </c>
       <c r="B198" s="33" t="s">
-        <v>5067</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="33" t="s">
-        <v>5068</v>
+        <v>5070</v>
       </c>
       <c r="B199" s="33" t="s">
-        <v>5069</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="33" t="s">
-        <v>5070</v>
+        <v>5072</v>
       </c>
       <c r="B200" s="33" t="s">
-        <v>5071</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="33" t="s">
-        <v>5072</v>
+        <v>5074</v>
       </c>
       <c r="B201" s="33" t="s">
-        <v>5073</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="33" t="s">
-        <v>5074</v>
+        <v>5076</v>
       </c>
       <c r="B202" s="33" t="s">
-        <v>5075</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="33" t="s">
-        <v>5076</v>
+        <v>5078</v>
       </c>
       <c r="B203" s="33" t="s">
-        <v>5077</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="33" t="s">
-        <v>5078</v>
+        <v>5080</v>
       </c>
       <c r="B204" s="33" t="s">
-        <v>5079</v>
+        <v>5081</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>5080</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="33" t="s">
-        <v>5081</v>
+        <v>5083</v>
       </c>
       <c r="B205" s="33" t="s">
-        <v>5082</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="33" t="s">
-        <v>5083</v>
+        <v>5085</v>
       </c>
       <c r="B206" s="33" t="s">
-        <v>5084</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="33" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
       <c r="B207" s="33" t="s">
-        <v>5086</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="33" t="s">
-        <v>5087</v>
+        <v>5089</v>
       </c>
       <c r="B208" s="33" t="s">
-        <v>5088</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="33" t="s">
-        <v>5089</v>
+        <v>5091</v>
       </c>
       <c r="B209" s="33" t="s">
-        <v>5090</v>
+        <v>5092</v>
       </c>
       <c r="C209" s="33" t="s">
-        <v>5091</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="33" t="s">
-        <v>5092</v>
+        <v>5094</v>
       </c>
       <c r="B210" s="33" t="s">
-        <v>5093</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="33" t="s">
-        <v>5094</v>
+        <v>5096</v>
       </c>
       <c r="B211" s="33" t="s">
-        <v>5095</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="33" t="s">
-        <v>5096</v>
+        <v>5098</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>5097</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="33" t="s">
-        <v>5098</v>
+        <v>5100</v>
       </c>
       <c r="B213" s="33" t="s">
-        <v>5099</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="33" t="s">
-        <v>5100</v>
+        <v>5102</v>
       </c>
       <c r="B214" s="33" t="s">
-        <v>5101</v>
+        <v>5103</v>
       </c>
       <c r="C214" s="33" t="s">
-        <v>5102</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="33" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
       <c r="B215" s="33" t="s">
-        <v>5104</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="33" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>5106</v>
+        <v>5108</v>
       </c>
       <c r="C216" s="33" t="s">
-        <v>5107</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="33" t="s">
-        <v>5108</v>
+        <v>5110</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>5109</v>
+        <v>5111</v>
       </c>
       <c r="C218" s="33" t="s">
-        <v>5110</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="33" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>5112</v>
+        <v>5114</v>
       </c>
       <c r="C219" s="33" t="s">
-        <v>5113</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="33" t="s">
-        <v>5114</v>
+        <v>5116</v>
       </c>
       <c r="C220" s="33" t="s">
-        <v>5115</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="33" t="s">
-        <v>5116</v>
+        <v>5118</v>
       </c>
       <c r="C221" s="33" t="s">
-        <v>5117</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="33" t="s">
-        <v>5118</v>
+        <v>5120</v>
       </c>
       <c r="C222" s="33" t="s">
-        <v>5119</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="33" t="s">
-        <v>4872</v>
+        <v>4874</v>
       </c>
       <c r="C223" s="33" t="s">
-        <v>5120</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="33" t="s">
-        <v>5121</v>
+        <v>5123</v>
       </c>
       <c r="C224" s="33" t="s">
-        <v>5122</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="33" t="s">
-        <v>4817</v>
+        <v>4819</v>
       </c>
       <c r="C225" s="33" t="s">
-        <v>5123</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="33" t="s">
-        <v>5124</v>
+        <v>5126</v>
       </c>
       <c r="C227" s="33" t="s">
-        <v>5125</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="33" t="s">
-        <v>5126</v>
+        <v>5128</v>
       </c>
       <c r="C228" s="33" t="s">
-        <v>5127</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="33" t="s">
-        <v>5128</v>
+        <v>5130</v>
       </c>
       <c r="C229" s="33" t="s">
-        <v>5129</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="33" t="s">
-        <v>5130</v>
+        <v>5132</v>
       </c>
       <c r="C230" s="33" t="s">
-        <v>5131</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="33" t="s">
-        <v>5132</v>
+        <v>5134</v>
       </c>
       <c r="C231" s="33" t="s">
-        <v>5133</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="33" t="s">
-        <v>5134</v>
+        <v>5136</v>
       </c>
       <c r="C232" s="33" t="s">
-        <v>5135</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="33" t="s">
-        <v>5136</v>
+        <v>5138</v>
       </c>
       <c r="C233" s="33" t="s">
-        <v>5137</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="33" t="s">
-        <v>5138</v>
+        <v>5140</v>
       </c>
       <c r="C234" s="33" t="s">
-        <v>5139</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="33" t="s">
-        <v>5140</v>
+        <v>5142</v>
       </c>
       <c r="C235" s="33" t="s">
-        <v>5141</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="33" t="s">
-        <v>5142</v>
+        <v>5144</v>
       </c>
       <c r="C236" s="33" t="s">
-        <v>5143</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="33" t="s">
-        <v>5144</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="33" t="s">
-        <v>5145</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="33" t="s">
-        <v>5146</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="33" t="s">
-        <v>5147</v>
+        <v>5149</v>
       </c>
       <c r="C240" s="33" t="s">
-        <v>5148</v>
+        <v>5150</v>
       </c>
     </row>
   </sheetData>
@@ -22314,217 +22320,217 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="68" t="s">
-        <v>5149</v>
+        <v>5151</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>5150</v>
+        <v>5152</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>5151</v>
+        <v>5153</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>5152</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>4945</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>4747</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>4883</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>5155</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>4778</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>5018</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>5032</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>4974</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>4671</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>4937</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>4818</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>4986</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>4665</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>5079</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="69" t="s">
-        <v>5156</v>
+        <v>5158</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>5157</v>
+        <v>5159</v>
       </c>
       <c r="C16" s="70"/>
       <c r="D16" s="69" t="s">
-        <v>5018</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="33" t="s">
-        <v>5155</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" s="33" t="s">
-        <v>4671</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" s="33" t="s">
-        <v>4665</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" s="33" t="s">
-        <v>4818</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="21">
       <c r="D21" s="33" t="s">
-        <v>5090</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" s="33" t="s">
-        <v>4925</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" s="33" t="s">
-        <v>4737</v>
+        <v>4739</v>
       </c>
     </row>
   </sheetData>
@@ -22544,115 +22550,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>5158</v>
+        <v>5160</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>5159</v>
+        <v>5161</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>5160</v>
+        <v>5162</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>5161</v>
+        <v>5163</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>5162</v>
+        <v>5164</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>5163</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>5164</v>
+        <v>5166</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>5165</v>
+        <v>5167</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>5165</v>
+        <v>5167</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>5166</v>
+        <v>5168</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>5165</v>
+        <v>5167</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>5165</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="33" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="33" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="33" t="s">
-        <v>5169</v>
+        <v>5171</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>5170</v>
+        <v>5172</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>5170</v>
+        <v>5172</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>5170</v>
+        <v>5172</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>5170</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="33" t="s">
+        <v>5173</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>5173</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>5171</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>5171</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>5169</v>
-      </c>
       <c r="E6" s="33" t="s">
-        <v>5171</v>
+        <v>5173</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>5171</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>5172</v>
+        <v>5174</v>
       </c>
     </row>
   </sheetData>
@@ -22672,7 +22678,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>5173</v>
+        <v>5175</v>
       </c>
     </row>
   </sheetData>
@@ -49853,27 +49859,35 @@
         <v>4265</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="45" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>4267</v>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" s="56" t="s">
-        <v>4266</v>
+        <v>4268</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="45" t="s">
-        <v>4267</v>
+        <v>4269</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>4268</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
-        <v>4269</v>
+        <v>4271</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>4270</v>
+        <v>4272</v>
       </c>
     </row>
   </sheetData>
@@ -49887,10 +49901,11 @@
     <hyperlink r:id="rId4" ref="A5"/>
     <hyperlink r:id="rId5" ref="A6"/>
     <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A14"/>
-    <hyperlink r:id="rId8" ref="A15"/>
+    <hyperlink r:id="rId7" ref="A8"/>
+    <hyperlink r:id="rId8" ref="A14"/>
+    <hyperlink r:id="rId9" ref="A15"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -49917,168 +49932,168 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>4271</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>4272</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>4273</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>4274</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>4275</v>
+        <v>4277</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>4276</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>4277</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>4278</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>4279</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>4280</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>4281</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>4282</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>4283</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>4284</v>
+        <v>4286</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>4285</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>4286</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>4287</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>4288</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="33" t="s">
-        <v>4289</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>4290</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>4291</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>4292</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
-        <v>4293</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>4294</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>4295</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>4296</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>4297</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>4298</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>4299</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>4300</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>4301</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>4302</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="33" t="s">
-        <v>4303</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>4304</v>
+        <v>4306</v>
       </c>
     </row>
   </sheetData>
@@ -50107,19 +50122,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="58" t="s">
-        <v>4305</v>
+        <v>4307</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>4306</v>
+        <v>4308</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>4307</v>
+        <v>4309</v>
       </c>
       <c r="D1" s="58" t="s">
         <v>849</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>4308</v>
+        <v>4310</v>
       </c>
       <c r="F1" s="58" t="s">
         <v>848</v>
@@ -50133,16 +50148,16 @@
         <v>578</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>4309</v>
+        <v>4311</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>4310</v>
+        <v>4312</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>4311</v>
+        <v>4313</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>4311</v>
+        <v>4313</v>
       </c>
       <c r="F2" s="61"/>
       <c r="G2" s="60" t="s">
@@ -50154,16 +50169,16 @@
         <v>580</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>4312</v>
+        <v>4314</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>4313</v>
+        <v>4315</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>4314</v>
+        <v>4316</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>4315</v>
+        <v>4317</v>
       </c>
       <c r="F3" s="61"/>
       <c r="G3" s="60" t="s">
@@ -50175,16 +50190,16 @@
         <v>582</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>4316</v>
+        <v>4318</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>4317</v>
+        <v>4319</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>4318</v>
+        <v>4320</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>4319</v>
+        <v>4321</v>
       </c>
       <c r="F4" s="61"/>
       <c r="G4" s="60" t="s">
@@ -50196,16 +50211,16 @@
         <v>584</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>4320</v>
+        <v>4322</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>4321</v>
+        <v>4323</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>4322</v>
+        <v>4324</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>4323</v>
+        <v>4325</v>
       </c>
       <c r="F5" s="61"/>
       <c r="G5" s="60" t="s">
@@ -50220,13 +50235,13 @@
         <v>3259</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>4324</v>
+        <v>4326</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>4325</v>
+        <v>4327</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>4326</v>
+        <v>4328</v>
       </c>
       <c r="F6" s="61"/>
       <c r="G6" s="60" t="s">
@@ -50238,16 +50253,16 @@
         <v>587</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>4327</v>
+        <v>4329</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>4328</v>
+        <v>4330</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>4329</v>
+        <v>4331</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>4330</v>
+        <v>4332</v>
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="60" t="s">
@@ -50259,16 +50274,16 @@
         <v>589</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>4331</v>
+        <v>4333</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>4332</v>
+        <v>4334</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>4333</v>
+        <v>4335</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>4334</v>
+        <v>4336</v>
       </c>
       <c r="F8" s="61"/>
       <c r="G8" s="60" t="s">
@@ -50280,16 +50295,16 @@
         <v>591</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>4335</v>
+        <v>4337</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>4336</v>
+        <v>4338</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>4337</v>
+        <v>4339</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>4338</v>
+        <v>4340</v>
       </c>
       <c r="F9" s="61"/>
       <c r="G9" s="60" t="s">
@@ -50301,16 +50316,16 @@
         <v>593</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>4339</v>
+        <v>4341</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>4340</v>
+        <v>4342</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>4341</v>
+        <v>4343</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>4342</v>
+        <v>4344</v>
       </c>
       <c r="F10" s="61"/>
       <c r="G10" s="60" t="s">
@@ -50322,16 +50337,16 @@
         <v>595</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>4344</v>
+        <v>4346</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="60" t="s">
@@ -50343,16 +50358,16 @@
         <v>597</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>4346</v>
+        <v>4348</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>4347</v>
+        <v>4349</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>4349</v>
+        <v>4351</v>
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="60" t="s">
@@ -50364,16 +50379,16 @@
         <v>599</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>4350</v>
+        <v>4352</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>4351</v>
+        <v>4353</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>4352</v>
+        <v>4354</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>4353</v>
+        <v>4355</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="60" t="s">
@@ -50385,16 +50400,16 @@
         <v>600</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>4354</v>
+        <v>4356</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>4355</v>
+        <v>4357</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>4356</v>
+        <v>4358</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>4276</v>
+        <v>4278</v>
       </c>
       <c r="F14" s="61"/>
       <c r="G14" s="60" t="s">
@@ -50406,16 +50421,16 @@
         <v>601</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>4357</v>
+        <v>4359</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>4358</v>
+        <v>4360</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>4359</v>
+        <v>4361</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>4360</v>
+        <v>4362</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="60" t="s">
@@ -50427,16 +50442,16 @@
         <v>603</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>4363</v>
+        <v>4365</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="60" t="s">
@@ -50448,16 +50463,16 @@
         <v>605</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>4365</v>
+        <v>4367</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>4367</v>
+        <v>4369</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>4368</v>
+        <v>4370</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="60" t="s">
@@ -50469,16 +50484,16 @@
         <v>607</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>4369</v>
+        <v>4371</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>4370</v>
+        <v>4372</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>4371</v>
+        <v>4373</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>4372</v>
+        <v>4374</v>
       </c>
       <c r="F18" s="61"/>
       <c r="G18" s="60" t="s">
@@ -50490,16 +50505,16 @@
         <v>609</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>4373</v>
+        <v>4375</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>4374</v>
+        <v>4376</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>4375</v>
+        <v>4377</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>4376</v>
+        <v>4378</v>
       </c>
       <c r="F19" s="61"/>
       <c r="G19" s="60" t="s">
@@ -50511,16 +50526,16 @@
         <v>610</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>4377</v>
+        <v>4379</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>4378</v>
+        <v>4380</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>4379</v>
+        <v>4381</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>4380</v>
+        <v>4382</v>
       </c>
       <c r="F20" s="61"/>
       <c r="G20" s="60" t="s">
@@ -50532,19 +50547,19 @@
         <v>611</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>4381</v>
+        <v>4383</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>4382</v>
+        <v>4384</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>4383</v>
+        <v>4385</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>4384</v>
+        <v>4386</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>4385</v>
+        <v>4387</v>
       </c>
       <c r="G21" s="60" t="s">
         <v>855</v>
@@ -50555,19 +50570,19 @@
         <v>612</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>4386</v>
+        <v>4388</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>4387</v>
+        <v>4389</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>4388</v>
+        <v>4390</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>4389</v>
+        <v>4391</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>4390</v>
+        <v>4392</v>
       </c>
       <c r="G22" s="60" t="s">
         <v>855</v>
@@ -50578,16 +50593,16 @@
         <v>613</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>4391</v>
+        <v>4393</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>4392</v>
+        <v>4394</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>4393</v>
+        <v>4395</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>4394</v>
+        <v>4396</v>
       </c>
       <c r="F23" s="61"/>
       <c r="G23" s="60" t="s">
@@ -50599,16 +50614,16 @@
         <v>614</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>4395</v>
+        <v>4397</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>4396</v>
+        <v>4398</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>4397</v>
+        <v>4399</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>4398</v>
+        <v>4400</v>
       </c>
       <c r="F24" s="61"/>
       <c r="G24" s="60" t="s">
@@ -50620,16 +50635,16 @@
         <v>615</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>4399</v>
+        <v>4401</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>4400</v>
+        <v>4402</v>
       </c>
       <c r="D25" s="60" t="s">
-        <v>4401</v>
+        <v>4403</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>4402</v>
+        <v>4404</v>
       </c>
       <c r="F25" s="61"/>
       <c r="G25" s="60" t="s">
@@ -50641,16 +50656,16 @@
         <v>616</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>4403</v>
+        <v>4405</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>4404</v>
+        <v>4406</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>4405</v>
+        <v>4407</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>4406</v>
+        <v>4408</v>
       </c>
       <c r="F26" s="61"/>
       <c r="G26" s="60" t="s">
@@ -50662,16 +50677,16 @@
         <v>618</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>4407</v>
+        <v>4409</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>4408</v>
+        <v>4410</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>4409</v>
+        <v>4411</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>4410</v>
+        <v>4412</v>
       </c>
       <c r="F27" s="61"/>
       <c r="G27" s="60" t="s">
@@ -50683,16 +50698,16 @@
         <v>620</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>4411</v>
+        <v>4413</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>4412</v>
+        <v>4414</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>4413</v>
+        <v>4415</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>4414</v>
+        <v>4416</v>
       </c>
       <c r="F28" s="61"/>
       <c r="G28" s="60" t="s">
@@ -50704,16 +50719,16 @@
         <v>622</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>4415</v>
+        <v>4417</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>4416</v>
+        <v>4418</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>4417</v>
+        <v>4419</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>4418</v>
+        <v>4420</v>
       </c>
       <c r="F29" s="61"/>
       <c r="G29" s="60" t="s">
@@ -50725,16 +50740,16 @@
         <v>624</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>4419</v>
+        <v>4421</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>4420</v>
+        <v>4422</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>4421</v>
+        <v>4423</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>4422</v>
+        <v>4424</v>
       </c>
       <c r="F30" s="61"/>
       <c r="G30" s="60" t="s">
@@ -50746,16 +50761,16 @@
         <v>626</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>4423</v>
+        <v>4425</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>4424</v>
+        <v>4426</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>4425</v>
+        <v>4427</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>4426</v>
+        <v>4428</v>
       </c>
       <c r="F31" s="61"/>
       <c r="G31" s="60" t="s">
@@ -50767,16 +50782,16 @@
         <v>628</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>4427</v>
+        <v>4429</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>4428</v>
+        <v>4430</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>4429</v>
+        <v>4431</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>4430</v>
+        <v>4432</v>
       </c>
       <c r="F32" s="61"/>
       <c r="G32" s="60" t="s">
@@ -50788,16 +50803,16 @@
         <v>630</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>4431</v>
+        <v>4433</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>4432</v>
+        <v>4434</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>4433</v>
+        <v>4435</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>4434</v>
+        <v>4436</v>
       </c>
       <c r="F33" s="61"/>
       <c r="G33" s="60" t="s">
@@ -50809,16 +50824,16 @@
         <v>632</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>4435</v>
+        <v>4437</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>4436</v>
+        <v>4438</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>4437</v>
+        <v>4439</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>4438</v>
+        <v>4440</v>
       </c>
       <c r="F34" s="61"/>
       <c r="G34" s="60" t="s">
@@ -50830,16 +50845,16 @@
         <v>634</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>4439</v>
+        <v>4441</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>4440</v>
+        <v>4442</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>4441</v>
+        <v>4443</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>4442</v>
+        <v>4444</v>
       </c>
       <c r="F35" s="61"/>
       <c r="G35" s="60" t="s">
@@ -50851,16 +50866,16 @@
         <v>636</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>4443</v>
+        <v>4445</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>4444</v>
+        <v>4446</v>
       </c>
       <c r="D36" s="60" t="s">
-        <v>4445</v>
+        <v>4447</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>4446</v>
+        <v>4448</v>
       </c>
       <c r="F36" s="61"/>
       <c r="G36" s="60" t="s">
@@ -50872,16 +50887,16 @@
         <v>638</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>4447</v>
+        <v>4449</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>4448</v>
+        <v>4450</v>
       </c>
       <c r="D37" s="60" t="s">
-        <v>4449</v>
+        <v>4451</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>4450</v>
+        <v>4452</v>
       </c>
       <c r="F37" s="61"/>
       <c r="G37" s="60" t="s">
@@ -50893,16 +50908,16 @@
         <v>640</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>4451</v>
+        <v>4453</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>4452</v>
+        <v>4454</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>4453</v>
+        <v>4455</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>4454</v>
+        <v>4456</v>
       </c>
       <c r="F38" s="61"/>
       <c r="G38" s="60" t="s">
@@ -50914,16 +50929,16 @@
         <v>642</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>4455</v>
+        <v>4457</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>4456</v>
+        <v>4458</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>4457</v>
+        <v>4459</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>4285</v>
+        <v>4287</v>
       </c>
       <c r="F39" s="61"/>
       <c r="G39" s="60" t="s">
@@ -50935,16 +50950,16 @@
         <v>644</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>4458</v>
+        <v>4460</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>4459</v>
+        <v>4461</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>4460</v>
+        <v>4462</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>4461</v>
+        <v>4463</v>
       </c>
       <c r="F40" s="61"/>
       <c r="G40" s="60" t="s">
@@ -50956,16 +50971,16 @@
         <v>645</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>4462</v>
+        <v>4464</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>4463</v>
+        <v>4465</v>
       </c>
       <c r="D41" s="60" t="s">
-        <v>4464</v>
+        <v>4466</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>4465</v>
+        <v>4467</v>
       </c>
       <c r="F41" s="61"/>
       <c r="G41" s="60" t="s">
@@ -50977,16 +50992,16 @@
         <v>647</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>4466</v>
+        <v>4468</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>4467</v>
+        <v>4469</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>4468</v>
+        <v>4470</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>4469</v>
+        <v>4471</v>
       </c>
       <c r="F42" s="61"/>
       <c r="G42" s="60" t="s">
@@ -50998,16 +51013,16 @@
         <v>649</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>4470</v>
+        <v>4472</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>4471</v>
+        <v>4473</v>
       </c>
       <c r="D43" s="60" t="s">
-        <v>4472</v>
+        <v>4474</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>4472</v>
+        <v>4474</v>
       </c>
       <c r="F43" s="61"/>
       <c r="G43" s="60" t="s">
@@ -51019,16 +51034,16 @@
         <v>651</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>4473</v>
+        <v>4475</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>4474</v>
+        <v>4476</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>4475</v>
+        <v>4477</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>4476</v>
+        <v>4478</v>
       </c>
       <c r="F44" s="61"/>
       <c r="G44" s="60" t="s">
@@ -51043,13 +51058,13 @@
         <v>1136</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>4477</v>
+        <v>4479</v>
       </c>
       <c r="D45" s="60" t="s">
-        <v>4478</v>
+        <v>4480</v>
       </c>
       <c r="E45" s="60" t="s">
-        <v>4479</v>
+        <v>4481</v>
       </c>
       <c r="F45" s="61"/>
       <c r="G45" s="60" t="s">
@@ -51061,16 +51076,16 @@
         <v>655</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>4480</v>
+        <v>4482</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>4481</v>
+        <v>4483</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>4482</v>
+        <v>4484</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>4483</v>
+        <v>4485</v>
       </c>
       <c r="F46" s="61"/>
       <c r="G46" s="60" t="s">
@@ -51082,16 +51097,16 @@
         <v>656</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>4484</v>
+        <v>4486</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>4485</v>
+        <v>4487</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>4486</v>
+        <v>4488</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>4487</v>
+        <v>4489</v>
       </c>
       <c r="F47" s="61"/>
       <c r="G47" s="60" t="s">
@@ -51103,13 +51118,13 @@
         <v>658</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>4488</v>
+        <v>4490</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>4489</v>
+        <v>4491</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>4490</v>
+        <v>4492</v>
       </c>
       <c r="E48" s="60" t="s">
         <v>1167</v>
@@ -51124,16 +51139,16 @@
         <v>660</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>4491</v>
+        <v>4493</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>4492</v>
+        <v>4494</v>
       </c>
       <c r="D49" s="60" t="s">
-        <v>4493</v>
+        <v>4495</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>4494</v>
+        <v>4496</v>
       </c>
       <c r="F49" s="61"/>
       <c r="G49" s="60" t="s">
@@ -51145,16 +51160,16 @@
         <v>662</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>4495</v>
+        <v>4497</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>4496</v>
+        <v>4498</v>
       </c>
       <c r="D50" s="60" t="s">
-        <v>4497</v>
+        <v>4499</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>4498</v>
+        <v>4500</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="60" t="s">
@@ -51166,16 +51181,16 @@
         <v>664</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>4499</v>
+        <v>4501</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>4500</v>
+        <v>4502</v>
       </c>
       <c r="D51" s="60" t="s">
-        <v>4501</v>
+        <v>4503</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>4502</v>
+        <v>4504</v>
       </c>
       <c r="F51" s="61"/>
       <c r="G51" s="60" t="s">
@@ -51187,16 +51202,16 @@
         <v>666</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>4503</v>
+        <v>4505</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>4504</v>
+        <v>4506</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>4505</v>
+        <v>4507</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>4506</v>
+        <v>4508</v>
       </c>
       <c r="F52" s="61"/>
       <c r="G52" s="60" t="s">
@@ -51208,16 +51223,16 @@
         <v>668</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>4507</v>
+        <v>4509</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>4508</v>
+        <v>4510</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>4509</v>
+        <v>4511</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>4510</v>
+        <v>4512</v>
       </c>
       <c r="F53" s="61"/>
       <c r="G53" s="60" t="s">
@@ -51229,16 +51244,16 @@
         <v>670</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>4511</v>
+        <v>4513</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>4512</v>
+        <v>4514</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>4513</v>
+        <v>4515</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>4514</v>
+        <v>4516</v>
       </c>
       <c r="F54" s="61"/>
       <c r="G54" s="61"/>
@@ -51248,16 +51263,16 @@
         <v>672</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>4515</v>
+        <v>4517</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>4516</v>
+        <v>4518</v>
       </c>
       <c r="D55" s="60" t="s">
-        <v>4517</v>
+        <v>4519</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>4518</v>
+        <v>4520</v>
       </c>
       <c r="F55" s="61"/>
       <c r="G55" s="60" t="s">
@@ -51269,13 +51284,13 @@
         <v>674</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>4519</v>
+        <v>4521</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>4520</v>
+        <v>4522</v>
       </c>
       <c r="D56" s="60" t="s">
-        <v>4521</v>
+        <v>4523</v>
       </c>
       <c r="E56" s="61"/>
       <c r="F56" s="61"/>
@@ -51286,13 +51301,13 @@
         <v>676</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>4522</v>
+        <v>4524</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>4523</v>
+        <v>4525</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>4524</v>
+        <v>4526</v>
       </c>
       <c r="E57" s="61"/>
       <c r="F57" s="61"/>
@@ -51303,20 +51318,20 @@
         <v>678</v>
       </c>
       <c r="B58" s="60" t="s">
-        <v>4525</v>
+        <v>4527</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>4526</v>
+        <v>4528</v>
       </c>
       <c r="D58" s="60" t="s">
-        <v>4526</v>
+        <v>4528</v>
       </c>
       <c r="E58" s="61"/>
       <c r="F58" s="60" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
       <c r="G58" s="60" t="s">
-        <v>4528</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="59">
@@ -51324,20 +51339,20 @@
         <v>679</v>
       </c>
       <c r="B59" s="60" t="s">
-        <v>4529</v>
+        <v>4531</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>4530</v>
+        <v>4532</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>4531</v>
+        <v>4533</v>
       </c>
       <c r="E59" s="61"/>
       <c r="F59" s="60" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
       <c r="G59" s="60" t="s">
-        <v>4528</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="60">
@@ -51345,20 +51360,20 @@
         <v>680</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>4532</v>
+        <v>4534</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>4533</v>
+        <v>4535</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>4533</v>
+        <v>4535</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>4534</v>
+        <v>4536</v>
       </c>
       <c r="F60" s="61"/>
       <c r="G60" s="60" t="s">
-        <v>4528</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="61">
@@ -51366,20 +51381,20 @@
         <v>681</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>4535</v>
+        <v>4537</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>4536</v>
+        <v>4538</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>4536</v>
+        <v>4538</v>
       </c>
       <c r="E61" s="61"/>
       <c r="F61" s="60" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
       <c r="G61" s="60" t="s">
-        <v>4528</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="62">
@@ -51387,20 +51402,20 @@
         <v>682</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>4537</v>
+        <v>4539</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>4538</v>
+        <v>4540</v>
       </c>
       <c r="D62" s="60" t="s">
-        <v>4538</v>
+        <v>4540</v>
       </c>
       <c r="E62" s="61"/>
       <c r="F62" s="60" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
       <c r="G62" s="60" t="s">
-        <v>4528</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="63">
@@ -51408,20 +51423,20 @@
         <v>684</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>4539</v>
+        <v>4541</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
       <c r="D63" s="60" t="s">
-        <v>4541</v>
+        <v>4543</v>
       </c>
       <c r="E63" s="61"/>
       <c r="F63" s="60" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
       <c r="G63" s="60" t="s">
-        <v>4528</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="64">
@@ -51429,17 +51444,17 @@
         <v>686</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>4542</v>
+        <v>4544</v>
       </c>
       <c r="C64" s="60" t="s">
-        <v>4543</v>
+        <v>4545</v>
       </c>
       <c r="D64" s="60" t="s">
-        <v>4543</v>
+        <v>4545</v>
       </c>
       <c r="E64" s="61"/>
       <c r="F64" s="60" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="G64" s="61"/>
     </row>
@@ -51448,17 +51463,17 @@
         <v>688</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>4545</v>
+        <v>4547</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>4546</v>
+        <v>4548</v>
       </c>
       <c r="D65" s="60" t="s">
-        <v>4546</v>
+        <v>4548</v>
       </c>
       <c r="E65" s="61"/>
       <c r="F65" s="60" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="G65" s="61"/>
     </row>
@@ -51467,17 +51482,17 @@
         <v>690</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>4547</v>
+        <v>4549</v>
       </c>
       <c r="C66" s="60" t="s">
-        <v>4548</v>
+        <v>4550</v>
       </c>
       <c r="D66" s="60" t="s">
-        <v>4548</v>
+        <v>4550</v>
       </c>
       <c r="E66" s="61"/>
       <c r="F66" s="60" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="G66" s="61"/>
     </row>
@@ -51486,17 +51501,17 @@
         <v>692</v>
       </c>
       <c r="B67" s="60" t="s">
-        <v>4549</v>
+        <v>4551</v>
       </c>
       <c r="C67" s="60" t="s">
-        <v>4550</v>
+        <v>4552</v>
       </c>
       <c r="D67" s="60" t="s">
-        <v>4550</v>
+        <v>4552</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="60" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="G67" s="61"/>
     </row>
@@ -51505,17 +51520,17 @@
         <v>694</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>4551</v>
+        <v>4553</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>4552</v>
+        <v>4554</v>
       </c>
       <c r="D68" s="60" t="s">
-        <v>4552</v>
+        <v>4554</v>
       </c>
       <c r="E68" s="61"/>
       <c r="F68" s="60" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="G68" s="61"/>
     </row>
@@ -51524,17 +51539,17 @@
         <v>695</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>4554</v>
+        <v>4556</v>
       </c>
       <c r="D69" s="60" t="s">
-        <v>4554</v>
+        <v>4556</v>
       </c>
       <c r="E69" s="61"/>
       <c r="F69" s="60" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="G69" s="61"/>
     </row>
@@ -51543,17 +51558,17 @@
         <v>697</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>4555</v>
+        <v>4557</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>4556</v>
+        <v>4558</v>
       </c>
       <c r="D70" s="60" t="s">
-        <v>4556</v>
+        <v>4558</v>
       </c>
       <c r="E70" s="61"/>
       <c r="F70" s="60" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="G70" s="61"/>
     </row>
@@ -51562,17 +51577,17 @@
         <v>699</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>4557</v>
+        <v>4559</v>
       </c>
       <c r="C71" s="60" t="s">
-        <v>4558</v>
+        <v>4560</v>
       </c>
       <c r="D71" s="60" t="s">
-        <v>4558</v>
+        <v>4560</v>
       </c>
       <c r="E71" s="61"/>
       <c r="F71" s="60" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="G71" s="61"/>
     </row>
@@ -51581,17 +51596,17 @@
         <v>701</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>4559</v>
+        <v>4561</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>4560</v>
+        <v>4562</v>
       </c>
       <c r="D72" s="60" t="s">
-        <v>4561</v>
+        <v>4563</v>
       </c>
       <c r="E72" s="61"/>
       <c r="F72" s="60" t="s">
-        <v>4562</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="73">
@@ -51617,114 +51632,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>4354</v>
+        <v>4356</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>4563</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>4564</v>
+        <v>4566</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>4352</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>4565</v>
+        <v>4567</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>4566</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="57" t="s">
-        <v>4350</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>4564</v>
+        <v>4566</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>4567</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>4568</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>4569</v>
+        <v>4571</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>4570</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>4571</v>
+        <v>4573</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>4572</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>4573</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>4574</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>4575</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>4576</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>4577</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>4578</v>
+        <v>4580</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>4579</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="63" t="s">
-        <v>4580</v>
+        <v>4582</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>4581</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>4582</v>
+        <v>4584</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>4583</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>4584</v>
+        <v>4586</v>
       </c>
       <c r="B18" s="64"/>
     </row>
@@ -51750,356 +51765,356 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>4585</v>
+        <v>4587</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>4586</v>
+        <v>4588</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>4587</v>
+        <v>4589</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>4588</v>
+        <v>4590</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>4589</v>
+        <v>4591</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>4590</v>
+        <v>4592</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>4591</v>
+        <v>4593</v>
       </c>
       <c r="D4" s="64"/>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>4592</v>
+        <v>4594</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>4593</v>
+        <v>4595</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>4594</v>
+        <v>4596</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>4595</v>
+        <v>4597</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
     </row>
     <row r="7">
       <c r="A7" s="66" t="s">
-        <v>4596</v>
+        <v>4598</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>4597</v>
+        <v>4599</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
     </row>
     <row r="8">
       <c r="A8" s="66" t="s">
-        <v>4598</v>
+        <v>4600</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>4599</v>
+        <v>4601</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
     </row>
     <row r="9">
       <c r="A9" s="66" t="s">
-        <v>4600</v>
+        <v>4602</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>4601</v>
+        <v>4603</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
     </row>
     <row r="10">
       <c r="A10" s="66" t="s">
-        <v>4602</v>
+        <v>4604</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>4603</v>
+        <v>4605</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
     </row>
     <row r="11">
       <c r="A11" s="66" t="s">
-        <v>4604</v>
+        <v>4606</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>4603</v>
+        <v>4605</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
     </row>
     <row r="12">
       <c r="A12" s="66" t="s">
-        <v>4605</v>
+        <v>4607</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>4606</v>
+        <v>4608</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
     </row>
     <row r="13">
       <c r="A13" s="66" t="s">
-        <v>4607</v>
+        <v>4609</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>4608</v>
+        <v>4610</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
     </row>
     <row r="14">
       <c r="A14" s="66" t="s">
-        <v>4609</v>
+        <v>4611</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>4610</v>
+        <v>4612</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
     </row>
     <row r="15">
       <c r="A15" s="66" t="s">
-        <v>4611</v>
+        <v>4613</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>4612</v>
+        <v>4614</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
     </row>
     <row r="16">
       <c r="A16" s="66" t="s">
-        <v>4613</v>
+        <v>4615</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>4614</v>
+        <v>4616</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
     </row>
     <row r="17">
       <c r="A17" s="66" t="s">
-        <v>4615</v>
+        <v>4617</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>4616</v>
+        <v>4618</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
     </row>
     <row r="18">
       <c r="A18" s="66" t="s">
-        <v>4617</v>
+        <v>4619</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>4618</v>
+        <v>4620</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
     </row>
     <row r="19">
       <c r="A19" s="66" t="s">
-        <v>4619</v>
+        <v>4621</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>4620</v>
+        <v>4622</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
     </row>
     <row r="20">
       <c r="A20" s="66" t="s">
-        <v>4621</v>
+        <v>4623</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>4622</v>
+        <v>4624</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
     </row>
     <row r="21">
       <c r="A21" s="66" t="s">
-        <v>4623</v>
+        <v>4625</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>4624</v>
+        <v>4626</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
     </row>
     <row r="22">
       <c r="A22" s="66" t="s">
-        <v>4625</v>
+        <v>4627</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>4626</v>
+        <v>4628</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
     </row>
     <row r="23">
       <c r="A23" s="66" t="s">
-        <v>4627</v>
+        <v>4629</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>4626</v>
+        <v>4628</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
     </row>
     <row r="24">
       <c r="A24" s="66" t="s">
-        <v>4628</v>
+        <v>4630</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>4629</v>
+        <v>4631</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
     </row>
     <row r="25">
       <c r="A25" s="66" t="s">
-        <v>4630</v>
+        <v>4632</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>4631</v>
+        <v>4633</v>
       </c>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
     </row>
     <row r="26">
       <c r="A26" s="66" t="s">
-        <v>4632</v>
+        <v>4634</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>4631</v>
+        <v>4633</v>
       </c>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
     </row>
     <row r="27">
       <c r="A27" s="66" t="s">
-        <v>4633</v>
+        <v>4635</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>4634</v>
+        <v>4636</v>
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
     </row>
     <row r="28">
       <c r="A28" s="66" t="s">
-        <v>4635</v>
+        <v>4637</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>4636</v>
+        <v>4638</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
     </row>
     <row r="29">
       <c r="A29" s="66" t="s">
-        <v>4637</v>
+        <v>4639</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>4638</v>
+        <v>4640</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
     </row>
     <row r="30">
       <c r="A30" s="66" t="s">
-        <v>4639</v>
+        <v>4641</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>4640</v>
+        <v>4642</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
     </row>
     <row r="31">
       <c r="A31" s="66" t="s">
-        <v>4641</v>
+        <v>4643</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>4640</v>
+        <v>4642</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>4642</v>
+        <v>4644</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>4643</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="66" t="s">
-        <v>4644</v>
+        <v>4646</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>4645</v>
+        <v>4647</v>
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
     </row>
     <row r="33">
       <c r="A33" s="66" t="s">
-        <v>4646</v>
+        <v>4648</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>4647</v>
+        <v>4649</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="64"/>
     </row>
     <row r="34">
       <c r="A34" s="66" t="s">
-        <v>4648</v>
+        <v>4650</v>
       </c>
       <c r="B34" s="67" t="s">
-        <v>4649</v>
+        <v>4651</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
     </row>
     <row r="35">
       <c r="A35" s="66" t="s">
-        <v>4650</v>
+        <v>4652</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>4651</v>
+        <v>4653</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
     </row>
     <row r="36">
       <c r="A36" s="66" t="s">
-        <v>4652</v>
+        <v>4654</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>4653</v>
+        <v>4655</v>
       </c>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6702" uniqueCount="5178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6703" uniqueCount="5179">
   <si>
     <t>Address</t>
   </si>
@@ -15599,6 +15599,9 @@
   </si>
   <si>
     <t>Other/other.bin seems to contain the spirites for dropped rupees, bombs, hearts, maps, etc</t>
+  </si>
+  <si>
+    <t>0x2146288 - start of function that gives salvage items</t>
   </si>
 </sst>
 </file>
@@ -22703,6 +22706,11 @@
         <v>5177</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="33" t="s">
+        <v>5178</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -157,7 +157,7 @@
     <t>Got fortune from astrid (1/2)</t>
   </si>
   <si>
-    <t>Got fotune from astrid (2/2)</t>
+    <t>Got fortune from astrid (2/2)</t>
   </si>
   <si>
     <t>Agreed to help Astrid</t>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -1213,7 +1213,7 @@
     <t>Big Catch Lure</t>
   </si>
   <si>
-    <t>Slate</t>
+    <t>Cyclone Slate</t>
   </si>
   <si>
     <t>Swordsman's Scroll</t>
@@ -19366,7 +19366,7 @@
       <c r="B172" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="8" t="s">
         <v>396</v>
       </c>
       <c r="D172" s="10" t="s">

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6715" uniqueCount="5184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6716" uniqueCount="5184">
   <si>
     <t>Address</t>
   </si>
@@ -50083,6 +50083,9 @@
       <c r="A18" s="32" t="s">
         <v>4301</v>
       </c>
+      <c r="B18" s="32" t="s">
+        <v>2672</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="32" t="s">

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6716" uniqueCount="5184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="5184">
   <si>
     <t>Address</t>
   </si>
@@ -12967,15 +12967,24 @@
     <t>kojima1.bmg</t>
   </si>
   <si>
+    <t>Harrow Island</t>
+  </si>
+  <si>
     <t>kojima2.bmg</t>
   </si>
   <si>
+    <t>Maze Island</t>
+  </si>
+  <si>
     <t>kojima3.bmg</t>
   </si>
   <si>
     <t>kojima5.bmg</t>
   </si>
   <si>
+    <t>Dee Ess Island</t>
+  </si>
+  <si>
     <t>mainselect.bmg</t>
   </si>
   <si>
@@ -13321,9 +13330,6 @@
     <t>Small Island 1</t>
   </si>
   <si>
-    <t>Harrow Island</t>
-  </si>
-  <si>
     <t>isle_small2</t>
   </si>
   <si>
@@ -13333,9 +13339,6 @@
     <t>Small Island 2</t>
   </si>
   <si>
-    <t>Maze Island</t>
-  </si>
-  <si>
     <t>isle_small3</t>
   </si>
   <si>
@@ -13355,9 +13358,6 @@
   </si>
   <si>
     <t>Small Island 5</t>
-  </si>
-  <si>
-    <t>Dee Ess Island</t>
   </si>
   <si>
     <t>dngn_flame</t>
@@ -20371,7 +20371,7 @@
         <v>4667</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>4320</v>
+        <v>4323</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>4260</v>
@@ -50073,15 +50073,21 @@
       <c r="A16" s="32" t="s">
         <v>4299</v>
       </c>
+      <c r="B16" s="32" t="s">
+        <v>4300</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>4300</v>
+        <v>4301</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>4302</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="32" t="s">
-        <v>4301</v>
+        <v>4303</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>2672</v>
@@ -50089,77 +50095,80 @@
     </row>
     <row r="19">
       <c r="A19" s="32" t="s">
-        <v>4302</v>
+        <v>4304</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>4305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="32" t="s">
-        <v>4303</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="32" t="s">
-        <v>4304</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="32" t="s">
-        <v>4305</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="32" t="s">
-        <v>4306</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="32" t="s">
-        <v>4307</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="32" t="s">
-        <v>4308</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="32" t="s">
-        <v>4309</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="32" t="s">
-        <v>4310</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="32" t="s">
-        <v>4311</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="32" t="s">
-        <v>4312</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="32" t="s">
-        <v>4313</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="32" t="s">
-        <v>4314</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="32" t="s">
-        <v>4315</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="32" t="s">
-        <v>4316</v>
+        <v>4319</v>
       </c>
     </row>
   </sheetData>
@@ -50188,19 +50197,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>4317</v>
+        <v>4320</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>4318</v>
+        <v>4321</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>4319</v>
+        <v>4322</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>859</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>4320</v>
+        <v>4323</v>
       </c>
       <c r="F1" s="57" t="s">
         <v>858</v>
@@ -50214,16 +50223,16 @@
         <v>592</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>4321</v>
+        <v>4324</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>4322</v>
+        <v>4325</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>4323</v>
+        <v>4326</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>4323</v>
+        <v>4326</v>
       </c>
       <c r="F2" s="60"/>
       <c r="G2" s="59" t="s">
@@ -50235,16 +50244,16 @@
         <v>594</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>4324</v>
+        <v>4327</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>4325</v>
+        <v>4328</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>4326</v>
+        <v>4329</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>4327</v>
+        <v>4330</v>
       </c>
       <c r="F3" s="60"/>
       <c r="G3" s="59" t="s">
@@ -50256,16 +50265,16 @@
         <v>596</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>4328</v>
+        <v>4331</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>4329</v>
+        <v>4332</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>4330</v>
+        <v>4333</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>4331</v>
+        <v>4334</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="59" t="s">
@@ -50277,16 +50286,16 @@
         <v>598</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>4332</v>
+        <v>4335</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>4333</v>
+        <v>4336</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>4334</v>
+        <v>4337</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>4335</v>
+        <v>4338</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="59" t="s">
@@ -50301,13 +50310,13 @@
         <v>3269</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>4336</v>
+        <v>4339</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>4337</v>
+        <v>4340</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>4338</v>
+        <v>4341</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="59" t="s">
@@ -50319,16 +50328,16 @@
         <v>601</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>4339</v>
+        <v>4342</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>4340</v>
+        <v>4343</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>4341</v>
+        <v>4344</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>4342</v>
+        <v>4345</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="59" t="s">
@@ -50340,16 +50349,16 @@
         <v>603</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>4343</v>
+        <v>4346</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>4344</v>
+        <v>4347</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>4345</v>
+        <v>4348</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>4346</v>
+        <v>4349</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="59" t="s">
@@ -50361,16 +50370,16 @@
         <v>605</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>4347</v>
+        <v>4350</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>4348</v>
+        <v>4351</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>4349</v>
+        <v>4352</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>4350</v>
+        <v>4353</v>
       </c>
       <c r="F9" s="60"/>
       <c r="G9" s="59" t="s">
@@ -50382,16 +50391,16 @@
         <v>607</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>4351</v>
+        <v>4354</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>4352</v>
+        <v>4355</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>4353</v>
+        <v>4356</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>4354</v>
+        <v>4357</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="59" t="s">
@@ -50403,16 +50412,16 @@
         <v>609</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>4355</v>
+        <v>4358</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>4356</v>
+        <v>4359</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>4357</v>
+        <v>4360</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>4357</v>
+        <v>4360</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="59" t="s">
@@ -50424,16 +50433,16 @@
         <v>611</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>4358</v>
+        <v>4361</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>4359</v>
+        <v>4362</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>4360</v>
+        <v>4363</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="59" t="s">
@@ -50445,16 +50454,16 @@
         <v>613</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>4362</v>
+        <v>4365</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>4363</v>
+        <v>4366</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>4364</v>
+        <v>4367</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>4365</v>
+        <v>4368</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="59" t="s">
@@ -50466,13 +50475,13 @@
         <v>614</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>4366</v>
+        <v>4369</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>4367</v>
+        <v>4370</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>4368</v>
+        <v>4371</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>4288</v>
@@ -50487,16 +50496,16 @@
         <v>615</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>4369</v>
+        <v>4372</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>4370</v>
+        <v>4373</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>4371</v>
+        <v>4374</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>4372</v>
+        <v>4375</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="59" t="s">
@@ -50508,16 +50517,16 @@
         <v>617</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>4373</v>
+        <v>4376</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>4374</v>
+        <v>4377</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>4375</v>
+        <v>4378</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>4376</v>
+        <v>4379</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="59" t="s">
@@ -50529,16 +50538,16 @@
         <v>619</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>4377</v>
+        <v>4380</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>4378</v>
+        <v>4381</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>4379</v>
+        <v>4382</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>4380</v>
+        <v>4383</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="59" t="s">
@@ -50550,16 +50559,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>4381</v>
+        <v>4384</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>4382</v>
+        <v>4385</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>4383</v>
+        <v>4386</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>4384</v>
+        <v>4387</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="59" t="s">
@@ -50571,16 +50580,16 @@
         <v>622</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>4385</v>
+        <v>4388</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>4386</v>
+        <v>4389</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>4387</v>
+        <v>4390</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>4388</v>
+        <v>4391</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="59" t="s">
@@ -50592,16 +50601,16 @@
         <v>623</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>4389</v>
+        <v>4392</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>4390</v>
+        <v>4393</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>4391</v>
+        <v>4394</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>4392</v>
+        <v>4395</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="59" t="s">
@@ -50613,19 +50622,19 @@
         <v>624</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>4393</v>
+        <v>4396</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>4394</v>
+        <v>4397</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>4395</v>
+        <v>4398</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>4396</v>
+        <v>4399</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>4397</v>
+        <v>4400</v>
       </c>
       <c r="G21" s="59" t="s">
         <v>865</v>
@@ -50636,19 +50645,19 @@
         <v>625</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>4398</v>
+        <v>4401</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>4399</v>
+        <v>4402</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="G22" s="59" t="s">
         <v>865</v>
@@ -50659,16 +50668,16 @@
         <v>626</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>4403</v>
+        <v>4406</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>4404</v>
+        <v>4407</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>4405</v>
+        <v>4408</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>4406</v>
+        <v>4409</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="59" t="s">
@@ -50680,16 +50689,16 @@
         <v>627</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>4407</v>
+        <v>4410</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>4408</v>
+        <v>4411</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>4409</v>
+        <v>4412</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>4410</v>
+        <v>4413</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="59" t="s">
@@ -50701,16 +50710,16 @@
         <v>628</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>4411</v>
+        <v>4414</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>4412</v>
+        <v>4415</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>4413</v>
+        <v>4416</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>4414</v>
+        <v>4417</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="59" t="s">
@@ -50722,16 +50731,16 @@
         <v>629</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>4415</v>
+        <v>4418</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>4416</v>
+        <v>4419</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>4417</v>
+        <v>4420</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>4418</v>
+        <v>4300</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="59" t="s">
@@ -50743,16 +50752,16 @@
         <v>631</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>4419</v>
+        <v>4421</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>4420</v>
+        <v>4422</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>4421</v>
+        <v>4423</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>4422</v>
+        <v>4302</v>
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="59" t="s">
@@ -50764,16 +50773,16 @@
         <v>633</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="59" t="s">
@@ -50785,16 +50794,16 @@
         <v>635</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>4430</v>
+        <v>4305</v>
       </c>
       <c r="F29" s="60"/>
       <c r="G29" s="59" t="s">
@@ -51698,7 +51707,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="56" t="s">
-        <v>4366</v>
+        <v>4369</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>4575</v>
@@ -51709,7 +51718,7 @@
         <v>4576</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>4364</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="3">
@@ -51722,7 +51731,7 @@
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>4362</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="6">

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="5184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6720" uniqueCount="5184">
   <si>
     <t>Address</t>
   </si>
@@ -12946,6 +12946,9 @@
     <t>flame.bmg</t>
   </si>
   <si>
+    <t>Isle of Ember</t>
+  </si>
+  <si>
     <t>frost.bmg</t>
   </si>
   <si>
@@ -13190,9 +13193,6 @@
   </si>
   <si>
     <t>Fire Island</t>
-  </si>
-  <si>
-    <t>Isle of Ember</t>
   </si>
   <si>
     <t>isle_wind</t>
@@ -20371,7 +20371,7 @@
         <v>4667</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>4260</v>
@@ -50040,54 +50040,57 @@
       <c r="A10" s="32" t="s">
         <v>4292</v>
       </c>
+      <c r="B10" s="32" t="s">
+        <v>4293</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="32" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="32" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="32" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="32" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="32" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>2672</v>
@@ -50095,80 +50098,80 @@
     </row>
     <row r="19">
       <c r="A19" s="32" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="32" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="32" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="32" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="32" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="32" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="32" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="32" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="32" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="32" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="32" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="32" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="32" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="32" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="32" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
     </row>
   </sheetData>
@@ -50197,19 +50200,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>859</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="F1" s="57" t="s">
         <v>858</v>
@@ -50223,16 +50226,16 @@
         <v>592</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="F2" s="60"/>
       <c r="G2" s="59" t="s">
@@ -50244,16 +50247,16 @@
         <v>594</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="F3" s="60"/>
       <c r="G3" s="59" t="s">
@@ -50265,16 +50268,16 @@
         <v>596</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="59" t="s">
@@ -50286,16 +50289,16 @@
         <v>598</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="59" t="s">
@@ -50310,13 +50313,13 @@
         <v>3269</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="59" t="s">
@@ -50328,16 +50331,16 @@
         <v>601</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="59" t="s">
@@ -50349,16 +50352,16 @@
         <v>603</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="59" t="s">
@@ -50370,16 +50373,16 @@
         <v>605</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="F9" s="60"/>
       <c r="G9" s="59" t="s">
@@ -50391,16 +50394,16 @@
         <v>607</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="59" t="s">
@@ -50412,16 +50415,16 @@
         <v>609</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="59" t="s">
@@ -50433,16 +50436,16 @@
         <v>611</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="59" t="s">
@@ -50454,16 +50457,16 @@
         <v>613</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="59" t="s">
@@ -50475,13 +50478,13 @@
         <v>614</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>4288</v>
@@ -50496,16 +50499,16 @@
         <v>615</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>4375</v>
+        <v>4293</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="59" t="s">
@@ -50740,7 +50743,7 @@
         <v>4420</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="59" t="s">
@@ -50761,7 +50764,7 @@
         <v>4423</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="59" t="s">
@@ -50803,7 +50806,7 @@
         <v>4430</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="F29" s="60"/>
       <c r="G29" s="59" t="s">
@@ -51013,7 +51016,7 @@
         <v>4469</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="F39" s="60"/>
       <c r="G39" s="59" t="s">
@@ -51707,7 +51710,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="56" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>4575</v>
@@ -51718,7 +51721,7 @@
         <v>4576</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="3">
@@ -51731,7 +51734,7 @@
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="6">

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6720" uniqueCount="5184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6721" uniqueCount="5184">
   <si>
     <t>Address</t>
   </si>
@@ -12958,6 +12958,9 @@
     <t>hidari.bmg</t>
   </si>
   <si>
+    <t>Bannan Island</t>
+  </si>
+  <si>
     <t>kaitei.bmg</t>
   </si>
   <si>
@@ -13277,9 +13280,6 @@
   </si>
   <si>
     <t>Hidaridai Island</t>
-  </si>
-  <si>
-    <t>Bannan Island</t>
   </si>
   <si>
     <t>In the final game, this island's Japanese name is ボヌン島 (Bonun Island).</t>
@@ -20371,7 +20371,7 @@
         <v>4667</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>4260</v>
@@ -50058,39 +50058,42 @@
       <c r="A13" s="32" t="s">
         <v>4296</v>
       </c>
+      <c r="B13" s="32" t="s">
+        <v>4297</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="32" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="32" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="32" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="32" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="32" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>2672</v>
@@ -50098,80 +50101,80 @@
     </row>
     <row r="19">
       <c r="A19" s="32" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="32" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="32" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="32" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="32" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="32" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="32" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="32" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="32" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="32" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="32" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="32" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="32" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="32" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="32" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
     </row>
   </sheetData>
@@ -50200,19 +50203,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>859</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
       <c r="F1" s="57" t="s">
         <v>858</v>
@@ -50226,16 +50229,16 @@
         <v>592</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="F2" s="60"/>
       <c r="G2" s="59" t="s">
@@ -50247,16 +50250,16 @@
         <v>594</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="F3" s="60"/>
       <c r="G3" s="59" t="s">
@@ -50268,16 +50271,16 @@
         <v>596</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="59" t="s">
@@ -50289,16 +50292,16 @@
         <v>598</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="59" t="s">
@@ -50313,13 +50316,13 @@
         <v>3269</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="59" t="s">
@@ -50331,16 +50334,16 @@
         <v>601</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="59" t="s">
@@ -50352,16 +50355,16 @@
         <v>603</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="59" t="s">
@@ -50373,16 +50376,16 @@
         <v>605</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="F9" s="60"/>
       <c r="G9" s="59" t="s">
@@ -50394,16 +50397,16 @@
         <v>607</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="59" t="s">
@@ -50415,16 +50418,16 @@
         <v>609</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="59" t="s">
@@ -50436,16 +50439,16 @@
         <v>611</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="59" t="s">
@@ -50457,16 +50460,16 @@
         <v>613</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="59" t="s">
@@ -50478,13 +50481,13 @@
         <v>614</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>4288</v>
@@ -50499,13 +50502,13 @@
         <v>615</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E15" s="59" t="s">
         <v>4293</v>
@@ -50520,16 +50523,16 @@
         <v>617</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="59" t="s">
@@ -50541,16 +50544,16 @@
         <v>619</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="59" t="s">
@@ -50562,16 +50565,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="59" t="s">
@@ -50583,16 +50586,16 @@
         <v>622</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="59" t="s">
@@ -50604,16 +50607,16 @@
         <v>623</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="59" t="s">
@@ -50625,19 +50628,19 @@
         <v>624</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="G21" s="59" t="s">
         <v>865</v>
@@ -50648,16 +50651,16 @@
         <v>625</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>4404</v>
+        <v>4297</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>4405</v>
@@ -50743,7 +50746,7 @@
         <v>4420</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="59" t="s">
@@ -50764,7 +50767,7 @@
         <v>4423</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="59" t="s">
@@ -50806,7 +50809,7 @@
         <v>4430</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="F29" s="60"/>
       <c r="G29" s="59" t="s">
@@ -51016,7 +51019,7 @@
         <v>4469</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="F39" s="60"/>
       <c r="G39" s="59" t="s">
@@ -51710,7 +51713,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="56" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>4575</v>
@@ -51721,7 +51724,7 @@
         <v>4576</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="3">
@@ -51734,7 +51737,7 @@
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="6">

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -2669,7 +2669,7 @@
     <t>AMCN</t>
   </si>
   <si>
-    <t>Some kind of cutscene/camera pan trigger (?)</t>
+    <t xml:space="preserve">Some kind of cutscene/camera pan trigger (?) </t>
   </si>
   <si>
     <t>COMA</t>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -1265,10 +1265,10 @@
     <t>Red Potion (slot 1) (gives Item Tab)</t>
   </si>
   <si>
-    <t>A struct starts here (0x21BA5BE)</t>
-  </si>
-  <si>
-    <t>0x021BA5BE</t>
+    <t>A struct starts here (0x21BA5BA)</t>
+  </si>
+  <si>
+    <t>0x021BA5BA</t>
   </si>
   <si>
     <t>0x021BA600</t>
@@ -21241,17 +21241,17 @@
     <mergeCell ref="B56:I56"/>
     <mergeCell ref="C59:I59"/>
     <mergeCell ref="B60:I60"/>
+    <mergeCell ref="A61:J61"/>
     <mergeCell ref="B74:I77"/>
+    <mergeCell ref="B96:I97"/>
     <mergeCell ref="B98:I98"/>
-    <mergeCell ref="B96:I97"/>
+    <mergeCell ref="B99:I99"/>
     <mergeCell ref="B100:I100"/>
     <mergeCell ref="F102:I102"/>
     <mergeCell ref="F106:I106"/>
     <mergeCell ref="F110:I110"/>
     <mergeCell ref="F114:I114"/>
     <mergeCell ref="F118:I118"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="A61:J61"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="F126:I126"/>
     <mergeCell ref="F130:I130"/>
@@ -21286,21 +21286,21 @@
     <mergeCell ref="C162:I162"/>
     <mergeCell ref="C163:I163"/>
     <mergeCell ref="C164:I164"/>
-    <mergeCell ref="C165:I165"/>
-    <mergeCell ref="B252:I253"/>
-    <mergeCell ref="B254:I255"/>
-    <mergeCell ref="B256:I257"/>
-    <mergeCell ref="B258:I258"/>
-    <mergeCell ref="C260:I260"/>
-    <mergeCell ref="B261:I261"/>
-    <mergeCell ref="B262:I263"/>
-    <mergeCell ref="F265:I265"/>
+    <mergeCell ref="C207:I207"/>
+    <mergeCell ref="C208:I208"/>
+    <mergeCell ref="C209:I209"/>
+    <mergeCell ref="C210:I210"/>
+    <mergeCell ref="C211:I211"/>
+    <mergeCell ref="C212:I212"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="B213:G214"/>
     <mergeCell ref="B215:G216"/>
     <mergeCell ref="H216:I216"/>
     <mergeCell ref="B217:G217"/>
+    <mergeCell ref="A219:J219"/>
+    <mergeCell ref="B221:I224"/>
     <mergeCell ref="B250:I251"/>
-    <mergeCell ref="B221:I224"/>
-    <mergeCell ref="A219:J219"/>
+    <mergeCell ref="C165:I165"/>
     <mergeCell ref="C166:I166"/>
     <mergeCell ref="C167:I167"/>
     <mergeCell ref="C168:I168"/>
@@ -21342,14 +21342,14 @@
     <mergeCell ref="C204:I204"/>
     <mergeCell ref="C205:I205"/>
     <mergeCell ref="C206:I206"/>
-    <mergeCell ref="C207:I207"/>
-    <mergeCell ref="C208:I208"/>
-    <mergeCell ref="C209:I209"/>
-    <mergeCell ref="C210:I210"/>
-    <mergeCell ref="C211:I211"/>
-    <mergeCell ref="C212:I212"/>
-    <mergeCell ref="B213:G214"/>
-    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="B252:I253"/>
+    <mergeCell ref="B254:I255"/>
+    <mergeCell ref="B256:I257"/>
+    <mergeCell ref="B258:I258"/>
+    <mergeCell ref="C260:I260"/>
+    <mergeCell ref="B261:I261"/>
+    <mergeCell ref="B262:I263"/>
+    <mergeCell ref="F265:I265"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7179" uniqueCount="5557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7215" uniqueCount="5558">
   <si>
     <t>Address</t>
   </si>
@@ -16478,6 +16478,9 @@
   </si>
   <si>
     <t>Mercay Island Hidden Cave Exit</t>
+  </si>
+  <si>
+    <t>Mercay Island Sword Cave Entrance</t>
   </si>
   <si>
     <t>Actions on Water</t>
@@ -24123,118 +24126,15 @@
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="B230:I230"/>
-    <mergeCell ref="B231:I231"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="B233:I233"/>
-    <mergeCell ref="B234:I234"/>
-    <mergeCell ref="B235:I235"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="B236:G237"/>
-    <mergeCell ref="B238:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="B240:G241"/>
-    <mergeCell ref="B242:I243"/>
-    <mergeCell ref="B244:I244"/>
-    <mergeCell ref="B245:I245"/>
-    <mergeCell ref="B246:I247"/>
-    <mergeCell ref="B248:I251"/>
-    <mergeCell ref="B252:I255"/>
-    <mergeCell ref="B256:I259"/>
-    <mergeCell ref="B260:I263"/>
-    <mergeCell ref="B264:I267"/>
-    <mergeCell ref="B268:I271"/>
-    <mergeCell ref="B272:I275"/>
-    <mergeCell ref="B276:I279"/>
-    <mergeCell ref="B280:I283"/>
-    <mergeCell ref="B284:I287"/>
-    <mergeCell ref="B288:I291"/>
-    <mergeCell ref="B292:I295"/>
-    <mergeCell ref="B296:I299"/>
-    <mergeCell ref="B300:I303"/>
-    <mergeCell ref="B304:I307"/>
-    <mergeCell ref="B308:I311"/>
-    <mergeCell ref="B332:I335"/>
-    <mergeCell ref="B344:I347"/>
-    <mergeCell ref="B348:I351"/>
-    <mergeCell ref="B385:H386"/>
-    <mergeCell ref="B387:H388"/>
-    <mergeCell ref="B389:I390"/>
-    <mergeCell ref="B391:I392"/>
-    <mergeCell ref="B393:H394"/>
-    <mergeCell ref="B395:I396"/>
-    <mergeCell ref="B397:H398"/>
-    <mergeCell ref="B399:I400"/>
-    <mergeCell ref="B413:I416"/>
-    <mergeCell ref="B417:I420"/>
-    <mergeCell ref="B421:I424"/>
-    <mergeCell ref="B425:I428"/>
-    <mergeCell ref="B429:I432"/>
-    <mergeCell ref="B433:I436"/>
-    <mergeCell ref="B437:I440"/>
-    <mergeCell ref="B401:I401"/>
-    <mergeCell ref="C403:I403"/>
-    <mergeCell ref="B404:I404"/>
-    <mergeCell ref="B405:I406"/>
-    <mergeCell ref="F408:I408"/>
-    <mergeCell ref="B409:I410"/>
-    <mergeCell ref="B411:I412"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
-    <mergeCell ref="B183:I183"/>
-    <mergeCell ref="B184:I184"/>
-    <mergeCell ref="B185:I185"/>
-    <mergeCell ref="B186:I186"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="B188:I188"/>
-    <mergeCell ref="B189:I189"/>
-    <mergeCell ref="B190:I190"/>
-    <mergeCell ref="B191:I191"/>
-    <mergeCell ref="B192:I192"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B194:I194"/>
-    <mergeCell ref="B195:I195"/>
-    <mergeCell ref="B196:I196"/>
-    <mergeCell ref="B197:I197"/>
-    <mergeCell ref="B198:I198"/>
-    <mergeCell ref="B199:I199"/>
-    <mergeCell ref="B200:I200"/>
-    <mergeCell ref="B201:I201"/>
-    <mergeCell ref="B202:I202"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="B205:I205"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="B207:I207"/>
-    <mergeCell ref="B208:I208"/>
-    <mergeCell ref="B209:I209"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="B212:I212"/>
-    <mergeCell ref="B213:I213"/>
-    <mergeCell ref="B214:I214"/>
-    <mergeCell ref="B215:I215"/>
-    <mergeCell ref="B216:I216"/>
-    <mergeCell ref="B217:I217"/>
-    <mergeCell ref="B218:I218"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="B220:I220"/>
-    <mergeCell ref="B221:I221"/>
-    <mergeCell ref="B222:I222"/>
-    <mergeCell ref="B223:I223"/>
-    <mergeCell ref="B224:I224"/>
-    <mergeCell ref="B225:I225"/>
-    <mergeCell ref="B226:I226"/>
-    <mergeCell ref="B227:I227"/>
-    <mergeCell ref="B228:I228"/>
-    <mergeCell ref="B229:I229"/>
+    <mergeCell ref="B81:I82"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I6"/>
     <mergeCell ref="B7:I10"/>
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="B79:I80"/>
-    <mergeCell ref="B81:I82"/>
-    <mergeCell ref="A83:J83"/>
     <mergeCell ref="B96:I99"/>
     <mergeCell ref="B100:I103"/>
     <mergeCell ref="B104:I107"/>
@@ -24279,8 +24179,111 @@
     <mergeCell ref="B178:I178"/>
     <mergeCell ref="B179:I179"/>
     <mergeCell ref="B180:I180"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B182:I182"/>
+    <mergeCell ref="B183:I183"/>
+    <mergeCell ref="B184:I184"/>
+    <mergeCell ref="B185:I185"/>
+    <mergeCell ref="B186:I186"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="B188:I188"/>
+    <mergeCell ref="B189:I189"/>
+    <mergeCell ref="B190:I190"/>
+    <mergeCell ref="B191:I191"/>
+    <mergeCell ref="B192:I192"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B194:I194"/>
+    <mergeCell ref="B195:I195"/>
+    <mergeCell ref="B196:I196"/>
+    <mergeCell ref="B197:I197"/>
+    <mergeCell ref="B198:I198"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="B200:I200"/>
+    <mergeCell ref="B201:I201"/>
+    <mergeCell ref="B202:I202"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B207:I207"/>
+    <mergeCell ref="B208:I208"/>
+    <mergeCell ref="B209:I209"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="B211:I211"/>
+    <mergeCell ref="B212:I212"/>
+    <mergeCell ref="B213:I213"/>
+    <mergeCell ref="B214:I214"/>
+    <mergeCell ref="B215:I215"/>
+    <mergeCell ref="B216:I216"/>
+    <mergeCell ref="B217:I217"/>
+    <mergeCell ref="B218:I218"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="B220:I220"/>
+    <mergeCell ref="B397:H398"/>
+    <mergeCell ref="B399:I400"/>
+    <mergeCell ref="B401:I401"/>
+    <mergeCell ref="C403:I403"/>
+    <mergeCell ref="B404:I404"/>
+    <mergeCell ref="B405:I406"/>
+    <mergeCell ref="F408:I408"/>
+    <mergeCell ref="B433:I436"/>
+    <mergeCell ref="B437:I440"/>
+    <mergeCell ref="B409:I410"/>
+    <mergeCell ref="B411:I412"/>
+    <mergeCell ref="B413:I416"/>
+    <mergeCell ref="B417:I420"/>
+    <mergeCell ref="B421:I424"/>
+    <mergeCell ref="B425:I428"/>
+    <mergeCell ref="B429:I432"/>
+    <mergeCell ref="B221:I221"/>
+    <mergeCell ref="B222:I222"/>
+    <mergeCell ref="B223:I223"/>
+    <mergeCell ref="B224:I224"/>
+    <mergeCell ref="B225:I225"/>
+    <mergeCell ref="B226:I226"/>
+    <mergeCell ref="B227:I227"/>
+    <mergeCell ref="B228:I228"/>
+    <mergeCell ref="B229:I229"/>
+    <mergeCell ref="B230:I230"/>
+    <mergeCell ref="B231:I231"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="B233:I233"/>
+    <mergeCell ref="B234:I234"/>
+    <mergeCell ref="B235:I235"/>
+    <mergeCell ref="B236:G237"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="B238:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="B240:G241"/>
+    <mergeCell ref="B242:I243"/>
+    <mergeCell ref="B244:I244"/>
+    <mergeCell ref="B245:I245"/>
+    <mergeCell ref="B246:I247"/>
+    <mergeCell ref="B248:I251"/>
+    <mergeCell ref="B252:I255"/>
+    <mergeCell ref="B256:I259"/>
+    <mergeCell ref="B260:I263"/>
+    <mergeCell ref="B264:I267"/>
+    <mergeCell ref="B268:I271"/>
+    <mergeCell ref="B272:I275"/>
+    <mergeCell ref="B276:I279"/>
+    <mergeCell ref="B280:I283"/>
+    <mergeCell ref="B284:I287"/>
+    <mergeCell ref="B288:I291"/>
+    <mergeCell ref="B292:I295"/>
+    <mergeCell ref="B296:I299"/>
+    <mergeCell ref="B300:I303"/>
+    <mergeCell ref="B304:I307"/>
+    <mergeCell ref="B308:I311"/>
+    <mergeCell ref="B332:I335"/>
+    <mergeCell ref="B344:I347"/>
+    <mergeCell ref="B348:I351"/>
+    <mergeCell ref="B385:H386"/>
+    <mergeCell ref="B387:H388"/>
+    <mergeCell ref="B389:I390"/>
+    <mergeCell ref="B391:I392"/>
+    <mergeCell ref="B393:H394"/>
+    <mergeCell ref="B395:I396"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25735,7 +25738,9 @@
       <c r="AD37" s="68"/>
     </row>
     <row r="38">
-      <c r="E38" s="68"/>
+      <c r="E38" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F38" s="67" t="s">
         <v>8</v>
       </c>
@@ -25769,7 +25774,9 @@
       <c r="AD38" s="68"/>
     </row>
     <row r="39">
-      <c r="E39" s="68"/>
+      <c r="E39" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F39" s="67" t="s">
         <v>7</v>
       </c>
@@ -25803,7 +25810,9 @@
       <c r="AD39" s="68"/>
     </row>
     <row r="40">
-      <c r="E40" s="68"/>
+      <c r="E40" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F40" s="67" t="s">
         <v>5391</v>
       </c>
@@ -25837,7 +25846,9 @@
       <c r="AD40" s="68"/>
     </row>
     <row r="41">
-      <c r="E41" s="68"/>
+      <c r="E41" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F41" s="67" t="s">
         <v>6</v>
       </c>
@@ -25875,7 +25886,9 @@
       <c r="B42" s="68"/>
       <c r="C42" s="68"/>
       <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
+      <c r="E42" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F42" s="67" t="s">
         <v>5388</v>
       </c>
@@ -25913,7 +25926,9 @@
       <c r="B43" s="68"/>
       <c r="C43" s="68"/>
       <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
+      <c r="E43" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F43" s="67" t="s">
         <v>8</v>
       </c>
@@ -25951,7 +25966,9 @@
       <c r="B44" s="68"/>
       <c r="C44" s="68"/>
       <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
+      <c r="E44" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F44" s="67" t="s">
         <v>7</v>
       </c>
@@ -25989,7 +26006,9 @@
       <c r="B45" s="68"/>
       <c r="C45" s="68"/>
       <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
+      <c r="E45" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F45" s="67" t="s">
         <v>5391</v>
       </c>
@@ -26027,7 +26046,9 @@
       <c r="B46" s="68"/>
       <c r="C46" s="68"/>
       <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
+      <c r="E46" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F46" s="67" t="s">
         <v>5388</v>
       </c>
@@ -26065,7 +26086,9 @@
       <c r="B47" s="68"/>
       <c r="C47" s="68"/>
       <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
+      <c r="E47" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F47" s="67" t="s">
         <v>8</v>
       </c>
@@ -26103,7 +26126,9 @@
       <c r="B48" s="68"/>
       <c r="C48" s="68"/>
       <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
+      <c r="E48" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F48" s="67" t="s">
         <v>7</v>
       </c>
@@ -26141,7 +26166,9 @@
       <c r="B49" s="68"/>
       <c r="C49" s="68"/>
       <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
+      <c r="E49" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F49" s="67" t="s">
         <v>5391</v>
       </c>
@@ -26179,7 +26206,9 @@
       <c r="B50" s="68"/>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
+      <c r="E50" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F50" s="67" t="s">
         <v>6</v>
       </c>
@@ -26217,7 +26246,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
       <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
+      <c r="E51" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F51" s="67" t="s">
         <v>5388</v>
       </c>
@@ -26255,7 +26286,9 @@
       <c r="B52" s="68"/>
       <c r="C52" s="68"/>
       <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
+      <c r="E52" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F52" s="67" t="s">
         <v>8</v>
       </c>
@@ -26293,7 +26326,9 @@
       <c r="B53" s="68"/>
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
+      <c r="E53" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F53" s="67" t="s">
         <v>7</v>
       </c>
@@ -26331,7 +26366,9 @@
       <c r="B54" s="68"/>
       <c r="C54" s="68"/>
       <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
+      <c r="E54" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F54" s="67" t="s">
         <v>5391</v>
       </c>
@@ -26369,7 +26406,9 @@
       <c r="B55" s="68"/>
       <c r="C55" s="68"/>
       <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
+      <c r="E55" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F55" s="67" t="s">
         <v>6</v>
       </c>
@@ -26407,7 +26446,9 @@
       <c r="B56" s="68"/>
       <c r="C56" s="68"/>
       <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
+      <c r="E56" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F56" s="67" t="s">
         <v>5394</v>
       </c>
@@ -26445,7 +26486,9 @@
       <c r="B57" s="68"/>
       <c r="C57" s="68"/>
       <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
+      <c r="E57" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F57" s="67" t="s">
         <v>5400</v>
       </c>
@@ -26483,7 +26526,9 @@
       <c r="B58" s="68"/>
       <c r="C58" s="68"/>
       <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
+      <c r="E58" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F58" s="67" t="s">
         <v>5402</v>
       </c>
@@ -26521,7 +26566,9 @@
       <c r="B59" s="68"/>
       <c r="C59" s="68"/>
       <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
+      <c r="E59" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F59" s="67" t="s">
         <v>5</v>
       </c>
@@ -26559,7 +26606,9 @@
       <c r="B60" s="68"/>
       <c r="C60" s="68"/>
       <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
+      <c r="E60" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F60" s="68"/>
       <c r="G60" s="67" t="s">
         <v>5450</v>
@@ -26595,7 +26644,9 @@
       <c r="B61" s="68"/>
       <c r="C61" s="68"/>
       <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
+      <c r="E61" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F61" s="68"/>
       <c r="G61" s="67" t="s">
         <v>5452</v>
@@ -26631,7 +26682,9 @@
       <c r="B62" s="68"/>
       <c r="C62" s="68"/>
       <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
+      <c r="E62" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F62" s="68"/>
       <c r="G62" s="67" t="s">
         <v>5454</v>
@@ -26667,7 +26720,9 @@
       <c r="B63" s="68"/>
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
+      <c r="E63" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F63" s="68"/>
       <c r="G63" s="67" t="s">
         <v>5456</v>
@@ -26703,7 +26758,9 @@
       <c r="B64" s="68"/>
       <c r="C64" s="68"/>
       <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
+      <c r="E64" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F64" s="68"/>
       <c r="G64" s="67" t="s">
         <v>5458</v>
@@ -26739,7 +26796,9 @@
       <c r="B65" s="68"/>
       <c r="C65" s="68"/>
       <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
+      <c r="E65" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F65" s="68"/>
       <c r="G65" s="67" t="s">
         <v>5460</v>
@@ -26775,7 +26834,9 @@
       <c r="B66" s="68"/>
       <c r="C66" s="68"/>
       <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
+      <c r="E66" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F66" s="67" t="s">
         <v>5388</v>
       </c>
@@ -26813,7 +26874,9 @@
       <c r="B67" s="68"/>
       <c r="C67" s="68"/>
       <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
+      <c r="E67" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F67" s="67" t="s">
         <v>8</v>
       </c>
@@ -26851,7 +26914,9 @@
       <c r="B68" s="68"/>
       <c r="C68" s="68"/>
       <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
+      <c r="E68" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F68" s="68"/>
       <c r="G68" s="67" t="s">
         <v>871</v>
@@ -26887,7 +26952,9 @@
       <c r="B69" s="68"/>
       <c r="C69" s="68"/>
       <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
+      <c r="E69" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F69" s="67" t="s">
         <v>5388</v>
       </c>
@@ -26925,7 +26992,9 @@
       <c r="B70" s="68"/>
       <c r="C70" s="68"/>
       <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
+      <c r="E70" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F70" s="67" t="s">
         <v>8</v>
       </c>
@@ -26963,7 +27032,9 @@
       <c r="B71" s="68"/>
       <c r="C71" s="68"/>
       <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
+      <c r="E71" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F71" s="67" t="s">
         <v>7</v>
       </c>
@@ -27001,12 +27072,16 @@
       <c r="B72" s="68"/>
       <c r="C72" s="68"/>
       <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
+      <c r="E72" s="67" t="s">
+        <v>5430</v>
+      </c>
       <c r="F72" s="68"/>
       <c r="G72" s="67" t="s">
         <v>873</v>
       </c>
-      <c r="H72" s="68"/>
+      <c r="H72" s="67" t="s">
+        <v>5467</v>
+      </c>
       <c r="I72" s="68"/>
       <c r="J72" s="68"/>
       <c r="K72" s="68"/>
@@ -56783,356 +56858,356 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>5467</v>
+        <v>5468</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>5468</v>
+        <v>5469</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>5469</v>
+        <v>5470</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>5470</v>
+        <v>5471</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>5471</v>
+        <v>5472</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>5472</v>
+        <v>5473</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>5473</v>
+        <v>5474</v>
       </c>
       <c r="D4" s="64"/>
     </row>
     <row r="5">
       <c r="A5" s="74" t="s">
-        <v>5474</v>
+        <v>5475</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>5475</v>
+        <v>5476</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
-        <v>5476</v>
+        <v>5477</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>5478</v>
+        <v>5479</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>5479</v>
+        <v>5480</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
     </row>
     <row r="8">
       <c r="A8" s="74" t="s">
-        <v>5480</v>
+        <v>5481</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>5481</v>
+        <v>5482</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
     </row>
     <row r="9">
       <c r="A9" s="74" t="s">
-        <v>5482</v>
+        <v>5483</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>5483</v>
+        <v>5484</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
     </row>
     <row r="10">
       <c r="A10" s="74" t="s">
-        <v>5484</v>
+        <v>5485</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>5485</v>
+        <v>5486</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
     </row>
     <row r="11">
       <c r="A11" s="74" t="s">
+        <v>5487</v>
+      </c>
+      <c r="B11" s="75" t="s">
         <v>5486</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>5485</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
     </row>
     <row r="12">
       <c r="A12" s="74" t="s">
-        <v>5487</v>
+        <v>5488</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>5488</v>
+        <v>5489</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
     </row>
     <row r="13">
       <c r="A13" s="74" t="s">
-        <v>5489</v>
+        <v>5490</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>5490</v>
+        <v>5491</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
     </row>
     <row r="14">
       <c r="A14" s="74" t="s">
-        <v>5491</v>
+        <v>5492</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>5492</v>
+        <v>5493</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
     </row>
     <row r="15">
       <c r="A15" s="74" t="s">
-        <v>5493</v>
+        <v>5494</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>5494</v>
+        <v>5495</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
     </row>
     <row r="16">
       <c r="A16" s="74" t="s">
-        <v>5495</v>
+        <v>5496</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>5496</v>
+        <v>5497</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
     </row>
     <row r="17">
       <c r="A17" s="74" t="s">
-        <v>5497</v>
+        <v>5498</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>5498</v>
+        <v>5499</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
     </row>
     <row r="18">
       <c r="A18" s="74" t="s">
-        <v>5499</v>
+        <v>5500</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>5500</v>
+        <v>5501</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
     </row>
     <row r="19">
       <c r="A19" s="74" t="s">
-        <v>5501</v>
+        <v>5502</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>5502</v>
+        <v>5503</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
     </row>
     <row r="20">
       <c r="A20" s="74" t="s">
-        <v>5503</v>
+        <v>5504</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>5504</v>
+        <v>5505</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
     </row>
     <row r="21">
       <c r="A21" s="74" t="s">
-        <v>5505</v>
+        <v>5506</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>5506</v>
+        <v>5507</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
     </row>
     <row r="22">
       <c r="A22" s="74" t="s">
-        <v>5507</v>
+        <v>5508</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>5508</v>
+        <v>5509</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
     </row>
     <row r="23">
       <c r="A23" s="74" t="s">
+        <v>5510</v>
+      </c>
+      <c r="B23" s="75" t="s">
         <v>5509</v>
-      </c>
-      <c r="B23" s="75" t="s">
-        <v>5508</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
     </row>
     <row r="24">
       <c r="A24" s="74" t="s">
-        <v>5510</v>
+        <v>5511</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>5511</v>
+        <v>5512</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
     </row>
     <row r="25">
       <c r="A25" s="74" t="s">
-        <v>5512</v>
+        <v>5513</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>5513</v>
+        <v>5514</v>
       </c>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
     </row>
     <row r="26">
       <c r="A26" s="74" t="s">
+        <v>5515</v>
+      </c>
+      <c r="B26" s="75" t="s">
         <v>5514</v>
-      </c>
-      <c r="B26" s="75" t="s">
-        <v>5513</v>
       </c>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
     </row>
     <row r="27">
       <c r="A27" s="74" t="s">
-        <v>5515</v>
+        <v>5516</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>5516</v>
+        <v>5517</v>
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
     </row>
     <row r="28">
       <c r="A28" s="74" t="s">
-        <v>5517</v>
+        <v>5518</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>5518</v>
+        <v>5519</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
     </row>
     <row r="29">
       <c r="A29" s="74" t="s">
-        <v>5519</v>
+        <v>5520</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>5520</v>
+        <v>5521</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
     </row>
     <row r="30">
       <c r="A30" s="74" t="s">
-        <v>5521</v>
+        <v>5522</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>5522</v>
+        <v>5523</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
     </row>
     <row r="31">
       <c r="A31" s="74" t="s">
+        <v>5524</v>
+      </c>
+      <c r="B31" s="75" t="s">
         <v>5523</v>
       </c>
-      <c r="B31" s="75" t="s">
-        <v>5522</v>
-      </c>
       <c r="C31" s="75" t="s">
-        <v>5524</v>
+        <v>5525</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>5525</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="74" t="s">
-        <v>5526</v>
+        <v>5527</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>5527</v>
+        <v>5528</v>
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
     </row>
     <row r="33">
       <c r="A33" s="74" t="s">
-        <v>5528</v>
+        <v>5529</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>5529</v>
+        <v>5530</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="64"/>
     </row>
     <row r="34">
       <c r="A34" s="74" t="s">
-        <v>5530</v>
+        <v>5531</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>5531</v>
+        <v>5532</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
     </row>
     <row r="35">
       <c r="A35" s="74" t="s">
-        <v>5532</v>
+        <v>5533</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>5533</v>
+        <v>5534</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
     </row>
     <row r="36">
       <c r="A36" s="74" t="s">
-        <v>5534</v>
+        <v>5535</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>5535</v>
+        <v>5536</v>
       </c>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
@@ -57198,24 +57273,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="76" t="s">
-        <v>5536</v>
+        <v>5537</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>5537</v>
+        <v>5538</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>5538</v>
+        <v>5539</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>5539</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>1393</v>
@@ -57223,10 +57298,10 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>1193</v>
@@ -57234,10 +57309,10 @@
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>1331</v>
@@ -57245,21 +57320,21 @@
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>5542</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>1224</v>
@@ -57267,10 +57342,10 @@
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>1466</v>
@@ -57278,10 +57353,10 @@
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>1480</v>
@@ -57289,10 +57364,10 @@
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>1422</v>
@@ -57300,10 +57375,10 @@
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>1115</v>
@@ -57311,10 +57386,10 @@
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>1385</v>
@@ -57322,10 +57397,10 @@
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>1265</v>
@@ -57333,10 +57408,10 @@
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>1434</v>
@@ -57344,10 +57419,10 @@
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>1109</v>
@@ -57355,10 +57430,10 @@
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>5540</v>
+        <v>5541</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>1527</v>
@@ -57366,10 +57441,10 @@
     </row>
     <row r="16">
       <c r="A16" s="77" t="s">
-        <v>5543</v>
+        <v>5544</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>5544</v>
+        <v>5545</v>
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="77" t="s">
@@ -57378,7 +57453,7 @@
     </row>
     <row r="17">
       <c r="D17" s="33" t="s">
-        <v>5542</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="18">
@@ -57428,7 +57503,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>5545</v>
+        <v>5546</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>5388</v>
@@ -57448,95 +57523,95 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>5546</v>
+        <v>5547</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>5547</v>
+        <v>5548</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>5547</v>
+        <v>5548</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>5549</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>5548</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>5547</v>
-      </c>
       <c r="F2" s="33" t="s">
-        <v>5547</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="33" t="s">
-        <v>5549</v>
+        <v>5550</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>5549</v>
+        <v>5550</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>5549</v>
+        <v>5550</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>5549</v>
+        <v>5550</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>5549</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="33" t="s">
-        <v>5550</v>
+        <v>5551</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>5550</v>
+        <v>5551</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>5550</v>
+        <v>5551</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>5550</v>
+        <v>5551</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>5550</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="33" t="s">
-        <v>5551</v>
+        <v>5552</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>5552</v>
+        <v>5553</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>5552</v>
+        <v>5553</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>5552</v>
+        <v>5553</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>5552</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="33" t="s">
-        <v>5553</v>
+        <v>5554</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>5553</v>
+        <v>5554</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>5551</v>
+        <v>5552</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>5553</v>
+        <v>5554</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>5553</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>5554</v>
+        <v>5555</v>
       </c>
     </row>
   </sheetData>
@@ -57556,12 +57631,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>5555</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>5556</v>
+        <v>5557</v>
       </c>
     </row>
   </sheetData>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -2970,7 +2970,7 @@
     <t>0x3F</t>
   </si>
   <si>
-    <t>Telescope</t>
+    <t>Kaleidoscope</t>
   </si>
   <si>
     <t>guard notebook</t>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -231,6 +231,18 @@
     <t>Bought the Cannon from Eddo</t>
   </si>
   <si>
+    <t>0x021B5543</t>
+  </si>
+  <si>
+    <t>Spirits start guiding ship to Ghost Ship</t>
+  </si>
+  <si>
+    <t>Talked to Linebeck after exploring Wayfarer Island</t>
+  </si>
+  <si>
+    <t>0x021B5544</t>
+  </si>
+  <si>
     <t>Found Kayo's ghost</t>
   </si>
   <si>
@@ -255,15 +267,6 @@
     <t>Agreed to help Astrid</t>
   </si>
   <si>
-    <t>0x021B5543</t>
-  </si>
-  <si>
-    <t>Spirits start guiding ship to Ghost Ship</t>
-  </si>
-  <si>
-    <t>0x021B5544</t>
-  </si>
-  <si>
     <t>Freed Linebeck from ToTOK</t>
   </si>
   <si>
@@ -271,9 +274,6 @@
   </si>
   <si>
     <t>Linebeck trapped in first room of temple of ocean king</t>
-  </si>
-  <si>
-    <t>Talked to Linebeck after exploring Wayfarer Island</t>
   </si>
   <si>
     <t>0x021B5545</t>
@@ -18103,68 +18103,63 @@
         <v>67</v>
       </c>
       <c r="J29" s="7"/>
-      <c r="K29" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
+      <c r="I30" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="J30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16" t="s">
+      <c r="I31" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="J31" s="7"/>
+      <c r="K31" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="L31" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="16" t="s">
+      <c r="M31" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -237,7 +237,7 @@
     <t>Spirits start guiding ship to Ghost Ship</t>
   </si>
   <si>
-    <t>Talked to Linebeck after exploring Wayfarer Island</t>
+    <t>Talked to Linebeck after exploring Bannan Island</t>
   </si>
   <si>
     <t>0x021B5544</t>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -2715,7 +2715,7 @@
     <t>0x0D</t>
   </si>
   <si>
-    <t>Shovel (No TB)</t>
+    <t xml:space="preserve">Shovel (No TB) </t>
   </si>
   <si>
     <t>0x0E</t>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -16895,7 +16895,7 @@
     <t>Wooden shield</t>
   </si>
   <si>
-    <t>Function is at 0x21807b8 in overlay 31 (ghidra numbering); its return value is used as an index into the table of Actor IDs located at 0x2181800 in memory</t>
+    <t xml:space="preserve">Function is at 0x21807b8 in overlay 31 (ghidra numbering); its return value is used as an index into the table of Actor IDs located at 0x2181800 in memory </t>
   </si>
   <si>
     <t>Other/other.bin seems to contain the spirites for dropped rupees, bombs, hearts, maps, etc</t>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -81,7 +81,7 @@
     <t>0x021B2E58</t>
   </si>
   <si>
-    <t>Current Room ID</t>
+    <t xml:space="preserve">Current Room ID </t>
   </si>
   <si>
     <t>0x021B2E59</t>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7264" uniqueCount="5606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7266" uniqueCount="5608">
   <si>
     <t>Address</t>
   </si>
@@ -16295,6 +16295,12 @@
   </si>
   <si>
     <t>map00.bin</t>
+  </si>
+  <si>
+    <t>map10.bin</t>
+  </si>
+  <si>
+    <t>Cave with sun key door</t>
   </si>
   <si>
     <t>map14.bin</t>
@@ -24556,29 +24562,29 @@
         <v>5407</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="37" t="s">
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="37" t="s">
         <v>5197</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>5405</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>5408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>5409</v>
+        <v>5405</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>5410</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>5410</v>
-      </c>
-      <c r="B8" s="19" t="s">
         <v>5411</v>
       </c>
     </row>
@@ -24594,37 +24600,37 @@
       <c r="A10" s="19" t="s">
         <v>5414</v>
       </c>
+      <c r="B10" s="19" t="s">
+        <v>5415</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>5415</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>5416</v>
+        <v>5417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>5417</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
-        <v>5418</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>5419</v>
-      </c>
-      <c r="B15" s="19" t="s">
         <v>5420</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="19" t="s">
         <v>5421</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -24632,10 +24638,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>5423</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="19" t="s">
         <v>5424</v>
       </c>
     </row>
@@ -24643,7 +24649,15 @@
       <c r="A18" s="65" t="s">
         <v>5425</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="66" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65" t="s">
+        <v>5427</v>
+      </c>
+      <c r="B19" s="65"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -24673,7 +24687,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="67" t="s">
-        <v>5426</v>
+        <v>5428</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -24707,28 +24721,28 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>5427</v>
+        <v>5429</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>5428</v>
+        <v>5430</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>5429</v>
+        <v>5431</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>5430</v>
+        <v>5432</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>5431</v>
+        <v>5433</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>5432</v>
+        <v>5434</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>5433</v>
+        <v>5435</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>5434</v>
+        <v>5436</v>
       </c>
       <c r="I2" s="70" t="s">
         <v>1678</v>
@@ -24757,16 +24771,16 @@
     </row>
     <row r="3">
       <c r="E3" s="71" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="G3" s="71" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>5437</v>
+        <v>5439</v>
       </c>
       <c r="I3" s="71"/>
       <c r="J3" s="72"/>
@@ -24793,16 +24807,16 @@
     </row>
     <row r="4">
       <c r="E4" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>5438</v>
+        <v>5440</v>
       </c>
       <c r="J4" s="69"/>
       <c r="K4" s="69"/>
@@ -24828,16 +24842,16 @@
     </row>
     <row r="5">
       <c r="E5" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>5437</v>
+        <v>5439</v>
       </c>
       <c r="J5" s="69"/>
       <c r="K5" s="69"/>
@@ -24863,16 +24877,16 @@
     </row>
     <row r="6">
       <c r="E6" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="G6" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>5440</v>
+        <v>5442</v>
       </c>
       <c r="J6" s="69"/>
       <c r="K6" s="69"/>
@@ -24898,16 +24912,16 @@
     </row>
     <row r="7">
       <c r="E7" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>5441</v>
+        <v>5443</v>
       </c>
       <c r="J7" s="69"/>
       <c r="K7" s="69"/>
@@ -24933,16 +24947,16 @@
     </row>
     <row r="8">
       <c r="E8" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>5442</v>
+        <v>5444</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>5443</v>
+        <v>5445</v>
       </c>
       <c r="J8" s="69"/>
       <c r="K8" s="69"/>
@@ -24968,16 +24982,16 @@
     </row>
     <row r="9">
       <c r="E9" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="G9" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>5444</v>
+        <v>5446</v>
       </c>
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
@@ -25004,7 +25018,7 @@
     </row>
     <row r="10">
       <c r="E10" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F10" s="68" t="s">
         <v>8</v>
@@ -25013,7 +25027,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>5444</v>
+        <v>5446</v>
       </c>
       <c r="I10" s="69"/>
       <c r="J10" s="69"/>
@@ -25040,7 +25054,7 @@
     </row>
     <row r="11">
       <c r="E11" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F11" s="68" t="s">
         <v>7</v>
@@ -25049,7 +25063,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>5444</v>
+        <v>5446</v>
       </c>
       <c r="I11" s="69"/>
       <c r="J11" s="69"/>
@@ -25076,16 +25090,16 @@
     </row>
     <row r="12">
       <c r="E12" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="G12" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>5445</v>
+        <v>5447</v>
       </c>
       <c r="I12" s="69"/>
       <c r="J12" s="69"/>
@@ -25112,7 +25126,7 @@
     </row>
     <row r="13">
       <c r="E13" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>6</v>
@@ -25121,7 +25135,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>5446</v>
+        <v>5448</v>
       </c>
       <c r="I13" s="69"/>
       <c r="J13" s="69"/>
@@ -25148,16 +25162,16 @@
     </row>
     <row r="14">
       <c r="E14" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>5442</v>
+        <v>5444</v>
       </c>
       <c r="G14" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="68" t="s">
-        <v>5447</v>
+        <v>5449</v>
       </c>
       <c r="I14" s="69"/>
       <c r="J14" s="69"/>
@@ -25184,16 +25198,16 @@
     </row>
     <row r="15">
       <c r="E15" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>5448</v>
+        <v>5450</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>5449</v>
+        <v>5451</v>
       </c>
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
@@ -25220,16 +25234,16 @@
     </row>
     <row r="16">
       <c r="E16" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>5450</v>
+        <v>5452</v>
       </c>
       <c r="G16" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>5451</v>
+        <v>5453</v>
       </c>
       <c r="I16" s="69"/>
       <c r="J16" s="69"/>
@@ -25256,16 +25270,16 @@
     </row>
     <row r="17">
       <c r="E17" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="G17" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>5452</v>
+        <v>5454</v>
       </c>
       <c r="I17" s="69"/>
       <c r="J17" s="69"/>
@@ -25292,7 +25306,7 @@
     </row>
     <row r="18">
       <c r="E18" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>8</v>
@@ -25301,7 +25315,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>5452</v>
+        <v>5454</v>
       </c>
       <c r="I18" s="69"/>
       <c r="J18" s="69"/>
@@ -25328,7 +25342,7 @@
     </row>
     <row r="19">
       <c r="E19" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>7</v>
@@ -25337,7 +25351,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="68" t="s">
-        <v>5453</v>
+        <v>5455</v>
       </c>
       <c r="I19" s="69"/>
       <c r="J19" s="69"/>
@@ -25364,16 +25378,16 @@
     </row>
     <row r="20">
       <c r="E20" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="68" t="s">
-        <v>5452</v>
+        <v>5454</v>
       </c>
       <c r="I20" s="69"/>
       <c r="J20" s="69"/>
@@ -25400,7 +25414,7 @@
     </row>
     <row r="21">
       <c r="E21" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F21" s="68" t="s">
         <v>6</v>
@@ -25409,7 +25423,7 @@
         <v>7</v>
       </c>
       <c r="H21" s="68" t="s">
-        <v>5454</v>
+        <v>5456</v>
       </c>
       <c r="I21" s="69"/>
       <c r="J21" s="69"/>
@@ -25436,16 +25450,16 @@
     </row>
     <row r="22">
       <c r="E22" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>5442</v>
+        <v>5444</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="68" t="s">
-        <v>5455</v>
+        <v>5457</v>
       </c>
       <c r="I22" s="69"/>
       <c r="J22" s="69"/>
@@ -25472,16 +25486,16 @@
     </row>
     <row r="23">
       <c r="E23" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H23" s="68" t="s">
-        <v>5456</v>
+        <v>5458</v>
       </c>
       <c r="I23" s="69"/>
       <c r="J23" s="69"/>
@@ -25508,16 +25522,16 @@
     </row>
     <row r="24">
       <c r="E24" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H24" s="68" t="s">
-        <v>5456</v>
+        <v>5458</v>
       </c>
       <c r="I24" s="69"/>
       <c r="J24" s="69"/>
@@ -25544,16 +25558,16 @@
     </row>
     <row r="25">
       <c r="E25" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H25" s="68" t="s">
-        <v>5457</v>
+        <v>5459</v>
       </c>
       <c r="I25" s="69"/>
       <c r="J25" s="69"/>
@@ -25580,16 +25594,16 @@
     </row>
     <row r="26">
       <c r="E26" s="68" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H26" s="68" t="s">
-        <v>5458</v>
+        <v>5460</v>
       </c>
       <c r="I26" s="69"/>
       <c r="J26" s="69"/>
@@ -25616,12 +25630,12 @@
     </row>
     <row r="27">
       <c r="E27" s="68" t="s">
-        <v>5459</v>
+        <v>5461</v>
       </c>
       <c r="F27" s="69"/>
       <c r="G27" s="69"/>
       <c r="H27" s="68" t="s">
-        <v>5460</v>
+        <v>5462</v>
       </c>
       <c r="I27" s="69"/>
       <c r="J27" s="69"/>
@@ -25648,12 +25662,12 @@
     </row>
     <row r="28">
       <c r="E28" s="68" t="s">
-        <v>5461</v>
+        <v>5463</v>
       </c>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="68" t="s">
-        <v>5462</v>
+        <v>5464</v>
       </c>
       <c r="I28" s="69"/>
       <c r="J28" s="69"/>
@@ -25680,12 +25694,12 @@
     </row>
     <row r="29">
       <c r="E29" s="68" t="s">
-        <v>5463</v>
+        <v>5465</v>
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="69"/>
       <c r="H29" s="68" t="s">
-        <v>5464</v>
+        <v>5466</v>
       </c>
       <c r="I29" s="69"/>
       <c r="J29" s="69"/>
@@ -25712,12 +25726,12 @@
     </row>
     <row r="30">
       <c r="E30" s="68" t="s">
-        <v>5465</v>
+        <v>5467</v>
       </c>
       <c r="F30" s="69"/>
       <c r="G30" s="69"/>
       <c r="H30" s="68" t="s">
-        <v>5466</v>
+        <v>5468</v>
       </c>
       <c r="I30" s="69"/>
       <c r="J30" s="69"/>
@@ -25744,12 +25758,12 @@
     </row>
     <row r="31">
       <c r="E31" s="68" t="s">
-        <v>5467</v>
+        <v>5469</v>
       </c>
       <c r="F31" s="69"/>
       <c r="G31" s="69"/>
       <c r="H31" s="68" t="s">
-        <v>5468</v>
+        <v>5470</v>
       </c>
       <c r="I31" s="69"/>
       <c r="J31" s="69"/>
@@ -25776,12 +25790,12 @@
     </row>
     <row r="32">
       <c r="E32" s="68" t="s">
-        <v>5469</v>
+        <v>5471</v>
       </c>
       <c r="F32" s="69"/>
       <c r="G32" s="69"/>
       <c r="H32" s="68" t="s">
-        <v>5470</v>
+        <v>5472</v>
       </c>
       <c r="I32" s="69"/>
       <c r="J32" s="69"/>
@@ -25808,12 +25822,12 @@
     </row>
     <row r="33">
       <c r="E33" s="68" t="s">
-        <v>5471</v>
+        <v>5473</v>
       </c>
       <c r="F33" s="69"/>
       <c r="G33" s="69"/>
       <c r="H33" s="68" t="s">
-        <v>5472</v>
+        <v>5474</v>
       </c>
       <c r="I33" s="69"/>
       <c r="J33" s="69"/>
@@ -25840,12 +25854,12 @@
     </row>
     <row r="34">
       <c r="E34" s="68" t="s">
-        <v>5473</v>
+        <v>5475</v>
       </c>
       <c r="F34" s="69"/>
       <c r="G34" s="69"/>
       <c r="H34" s="68" t="s">
-        <v>5474</v>
+        <v>5476</v>
       </c>
       <c r="I34" s="69"/>
       <c r="J34" s="69"/>
@@ -25872,12 +25886,12 @@
     </row>
     <row r="35">
       <c r="E35" s="68" t="s">
-        <v>5475</v>
+        <v>5477</v>
       </c>
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
       <c r="H35" s="68" t="s">
-        <v>5476</v>
+        <v>5478</v>
       </c>
       <c r="I35" s="69"/>
       <c r="J35" s="69"/>
@@ -25904,7 +25918,7 @@
     </row>
     <row r="36">
       <c r="E36" s="68" t="s">
-        <v>5477</v>
+        <v>5479</v>
       </c>
       <c r="F36" s="69"/>
       <c r="G36" s="69"/>
@@ -25936,16 +25950,16 @@
     </row>
     <row r="37">
       <c r="E37" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H37" s="68" t="s">
-        <v>5479</v>
+        <v>5481</v>
       </c>
       <c r="I37" s="69"/>
       <c r="J37" s="69"/>
@@ -25972,16 +25986,16 @@
     </row>
     <row r="38">
       <c r="E38" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F38" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H38" s="68" t="s">
-        <v>5479</v>
+        <v>5481</v>
       </c>
       <c r="I38" s="69"/>
       <c r="J38" s="69"/>
@@ -26008,16 +26022,16 @@
     </row>
     <row r="39">
       <c r="E39" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H39" s="68" t="s">
-        <v>5480</v>
+        <v>5482</v>
       </c>
       <c r="I39" s="69"/>
       <c r="J39" s="69"/>
@@ -26044,16 +26058,16 @@
     </row>
     <row r="40">
       <c r="E40" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H40" s="68" t="s">
-        <v>5481</v>
+        <v>5483</v>
       </c>
       <c r="I40" s="69"/>
       <c r="J40" s="69"/>
@@ -26080,16 +26094,16 @@
     </row>
     <row r="41">
       <c r="E41" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="H41" s="68" t="s">
-        <v>5482</v>
+        <v>5484</v>
       </c>
       <c r="I41" s="69"/>
       <c r="J41" s="69"/>
@@ -26120,16 +26134,16 @@
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
       <c r="E42" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="G42" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="68" t="s">
-        <v>5483</v>
+        <v>5485</v>
       </c>
       <c r="I42" s="69"/>
       <c r="J42" s="69"/>
@@ -26160,7 +26174,7 @@
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F43" s="68" t="s">
         <v>8</v>
@@ -26169,7 +26183,7 @@
         <v>8</v>
       </c>
       <c r="H43" s="68" t="s">
-        <v>5483</v>
+        <v>5485</v>
       </c>
       <c r="I43" s="69"/>
       <c r="J43" s="69"/>
@@ -26200,7 +26214,7 @@
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
       <c r="E44" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F44" s="68" t="s">
         <v>7</v>
@@ -26209,7 +26223,7 @@
         <v>8</v>
       </c>
       <c r="H44" s="68" t="s">
-        <v>5484</v>
+        <v>5486</v>
       </c>
       <c r="I44" s="69"/>
       <c r="J44" s="69"/>
@@ -26240,16 +26254,16 @@
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="G45" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="68" t="s">
-        <v>5485</v>
+        <v>5487</v>
       </c>
       <c r="I45" s="69"/>
       <c r="J45" s="69"/>
@@ -26280,16 +26294,16 @@
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
       <c r="E46" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="G46" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="68" t="s">
-        <v>5486</v>
+        <v>5488</v>
       </c>
       <c r="I46" s="69"/>
       <c r="J46" s="69"/>
@@ -26320,7 +26334,7 @@
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
       <c r="E47" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F47" s="68" t="s">
         <v>8</v>
@@ -26329,7 +26343,7 @@
         <v>7</v>
       </c>
       <c r="H47" s="68" t="s">
-        <v>5486</v>
+        <v>5488</v>
       </c>
       <c r="I47" s="69"/>
       <c r="J47" s="69"/>
@@ -26360,7 +26374,7 @@
       <c r="C48" s="69"/>
       <c r="D48" s="69"/>
       <c r="E48" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F48" s="68" t="s">
         <v>7</v>
@@ -26369,7 +26383,7 @@
         <v>7</v>
       </c>
       <c r="H48" s="68" t="s">
-        <v>5487</v>
+        <v>5489</v>
       </c>
       <c r="I48" s="69"/>
       <c r="J48" s="69"/>
@@ -26400,16 +26414,16 @@
       <c r="C49" s="69"/>
       <c r="D49" s="69"/>
       <c r="E49" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="G49" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="68" t="s">
-        <v>5488</v>
+        <v>5490</v>
       </c>
       <c r="I49" s="69"/>
       <c r="J49" s="69"/>
@@ -26440,7 +26454,7 @@
       <c r="C50" s="69"/>
       <c r="D50" s="69"/>
       <c r="E50" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F50" s="68" t="s">
         <v>6</v>
@@ -26449,7 +26463,7 @@
         <v>7</v>
       </c>
       <c r="H50" s="68" t="s">
-        <v>5489</v>
+        <v>5491</v>
       </c>
       <c r="I50" s="69"/>
       <c r="J50" s="69"/>
@@ -26480,16 +26494,16 @@
       <c r="C51" s="69"/>
       <c r="D51" s="69"/>
       <c r="E51" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H51" s="68" t="s">
-        <v>5490</v>
+        <v>5492</v>
       </c>
       <c r="I51" s="69"/>
       <c r="J51" s="69"/>
@@ -26520,16 +26534,16 @@
       <c r="C52" s="69"/>
       <c r="D52" s="69"/>
       <c r="E52" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H52" s="68" t="s">
-        <v>5490</v>
+        <v>5492</v>
       </c>
       <c r="I52" s="69"/>
       <c r="J52" s="69"/>
@@ -26560,16 +26574,16 @@
       <c r="C53" s="69"/>
       <c r="D53" s="69"/>
       <c r="E53" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F53" s="68" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H53" s="68" t="s">
-        <v>5491</v>
+        <v>5493</v>
       </c>
       <c r="I53" s="69"/>
       <c r="J53" s="69"/>
@@ -26600,16 +26614,16 @@
       <c r="C54" s="69"/>
       <c r="D54" s="69"/>
       <c r="E54" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F54" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="G54" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H54" s="68" t="s">
-        <v>5492</v>
+        <v>5494</v>
       </c>
       <c r="I54" s="69"/>
       <c r="J54" s="69"/>
@@ -26640,16 +26654,16 @@
       <c r="C55" s="69"/>
       <c r="D55" s="69"/>
       <c r="E55" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F55" s="68" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H55" s="68" t="s">
-        <v>5493</v>
+        <v>5495</v>
       </c>
       <c r="I55" s="69"/>
       <c r="J55" s="69"/>
@@ -26680,16 +26694,16 @@
       <c r="C56" s="69"/>
       <c r="D56" s="69"/>
       <c r="E56" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F56" s="68" t="s">
-        <v>5442</v>
+        <v>5444</v>
       </c>
       <c r="G56" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H56" s="68" t="s">
-        <v>5494</v>
+        <v>5496</v>
       </c>
       <c r="I56" s="69"/>
       <c r="J56" s="69"/>
@@ -26720,16 +26734,16 @@
       <c r="C57" s="69"/>
       <c r="D57" s="69"/>
       <c r="E57" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>5448</v>
+        <v>5450</v>
       </c>
       <c r="G57" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H57" s="68" t="s">
-        <v>5495</v>
+        <v>5497</v>
       </c>
       <c r="I57" s="69"/>
       <c r="J57" s="69"/>
@@ -26760,16 +26774,16 @@
       <c r="C58" s="69"/>
       <c r="D58" s="69"/>
       <c r="E58" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F58" s="68" t="s">
-        <v>5450</v>
+        <v>5452</v>
       </c>
       <c r="G58" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H58" s="68" t="s">
-        <v>5496</v>
+        <v>5498</v>
       </c>
       <c r="I58" s="69"/>
       <c r="J58" s="69"/>
@@ -26800,16 +26814,16 @@
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
       <c r="E59" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F59" s="68" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="68" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="H59" s="68" t="s">
-        <v>5497</v>
+        <v>5499</v>
       </c>
       <c r="I59" s="69"/>
       <c r="J59" s="69"/>
@@ -26840,14 +26854,14 @@
       <c r="C60" s="69"/>
       <c r="D60" s="69"/>
       <c r="E60" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F60" s="69"/>
       <c r="G60" s="68" t="s">
-        <v>5498</v>
+        <v>5500</v>
       </c>
       <c r="H60" s="68" t="s">
-        <v>5499</v>
+        <v>5501</v>
       </c>
       <c r="I60" s="69"/>
       <c r="J60" s="69"/>
@@ -26878,14 +26892,14 @@
       <c r="C61" s="69"/>
       <c r="D61" s="69"/>
       <c r="E61" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F61" s="69"/>
       <c r="G61" s="68" t="s">
-        <v>5500</v>
+        <v>5502</v>
       </c>
       <c r="H61" s="68" t="s">
-        <v>5501</v>
+        <v>5503</v>
       </c>
       <c r="I61" s="69"/>
       <c r="J61" s="69"/>
@@ -26916,14 +26930,14 @@
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
       <c r="E62" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F62" s="69"/>
       <c r="G62" s="68" t="s">
-        <v>5502</v>
+        <v>5504</v>
       </c>
       <c r="H62" s="68" t="s">
-        <v>5503</v>
+        <v>5505</v>
       </c>
       <c r="I62" s="69"/>
       <c r="J62" s="69"/>
@@ -26954,14 +26968,14 @@
       <c r="C63" s="69"/>
       <c r="D63" s="69"/>
       <c r="E63" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F63" s="69"/>
       <c r="G63" s="68" t="s">
-        <v>5504</v>
+        <v>5506</v>
       </c>
       <c r="H63" s="68" t="s">
-        <v>5505</v>
+        <v>5507</v>
       </c>
       <c r="I63" s="69"/>
       <c r="J63" s="69"/>
@@ -26992,14 +27006,14 @@
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F64" s="69"/>
       <c r="G64" s="68" t="s">
-        <v>5506</v>
+        <v>5508</v>
       </c>
       <c r="H64" s="68" t="s">
-        <v>5507</v>
+        <v>5509</v>
       </c>
       <c r="I64" s="69"/>
       <c r="J64" s="69"/>
@@ -27030,14 +27044,14 @@
       <c r="C65" s="69"/>
       <c r="D65" s="69"/>
       <c r="E65" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F65" s="69"/>
       <c r="G65" s="68" t="s">
-        <v>5508</v>
+        <v>5510</v>
       </c>
       <c r="H65" s="68" t="s">
-        <v>5509</v>
+        <v>5511</v>
       </c>
       <c r="I65" s="69"/>
       <c r="J65" s="69"/>
@@ -27068,16 +27082,16 @@
       <c r="C66" s="69"/>
       <c r="D66" s="69"/>
       <c r="E66" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F66" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="G66" s="68" t="s">
         <v>4</v>
       </c>
       <c r="H66" s="68" t="s">
-        <v>5510</v>
+        <v>5512</v>
       </c>
       <c r="I66" s="69"/>
       <c r="J66" s="69"/>
@@ -27108,7 +27122,7 @@
       <c r="C67" s="69"/>
       <c r="D67" s="69"/>
       <c r="E67" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F67" s="68" t="s">
         <v>8</v>
@@ -27117,7 +27131,7 @@
         <v>4</v>
       </c>
       <c r="H67" s="68" t="s">
-        <v>5511</v>
+        <v>5513</v>
       </c>
       <c r="I67" s="69"/>
       <c r="J67" s="69"/>
@@ -27148,14 +27162,14 @@
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
       <c r="E68" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F68" s="69"/>
       <c r="G68" s="68" t="s">
         <v>905</v>
       </c>
       <c r="H68" s="68" t="s">
-        <v>5512</v>
+        <v>5514</v>
       </c>
       <c r="I68" s="69"/>
       <c r="J68" s="69"/>
@@ -27186,16 +27200,16 @@
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
       <c r="E69" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="G69" s="68" t="s">
         <v>906</v>
       </c>
       <c r="H69" s="68" t="s">
-        <v>5513</v>
+        <v>5515</v>
       </c>
       <c r="I69" s="69"/>
       <c r="J69" s="69"/>
@@ -27226,7 +27240,7 @@
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
       <c r="E70" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F70" s="68" t="s">
         <v>8</v>
@@ -27235,7 +27249,7 @@
         <v>906</v>
       </c>
       <c r="H70" s="68" t="s">
-        <v>5513</v>
+        <v>5515</v>
       </c>
       <c r="I70" s="69"/>
       <c r="J70" s="69"/>
@@ -27266,7 +27280,7 @@
       <c r="C71" s="69"/>
       <c r="D71" s="69"/>
       <c r="E71" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F71" s="68" t="s">
         <v>7</v>
@@ -27275,7 +27289,7 @@
         <v>906</v>
       </c>
       <c r="H71" s="68" t="s">
-        <v>5514</v>
+        <v>5516</v>
       </c>
       <c r="I71" s="69"/>
       <c r="J71" s="69"/>
@@ -27306,14 +27320,14 @@
       <c r="C72" s="69"/>
       <c r="D72" s="69"/>
       <c r="E72" s="68" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="F72" s="69"/>
       <c r="G72" s="68" t="s">
         <v>907</v>
       </c>
       <c r="H72" s="68" t="s">
-        <v>5515</v>
+        <v>5517</v>
       </c>
       <c r="I72" s="69"/>
       <c r="J72" s="69"/>
@@ -57091,356 +57105,356 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="75" t="s">
-        <v>5516</v>
+        <v>5518</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>5517</v>
+        <v>5519</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
     </row>
     <row r="3">
       <c r="A3" s="75" t="s">
-        <v>5518</v>
+        <v>5520</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>5519</v>
+        <v>5521</v>
       </c>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
-        <v>5520</v>
+        <v>5522</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>5521</v>
+        <v>5523</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>5522</v>
+        <v>5524</v>
       </c>
       <c r="D4" s="65"/>
     </row>
     <row r="5">
       <c r="A5" s="75" t="s">
-        <v>5523</v>
+        <v>5525</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>5524</v>
+        <v>5526</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
     </row>
     <row r="6">
       <c r="A6" s="75" t="s">
-        <v>5525</v>
+        <v>5527</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>5526</v>
+        <v>5528</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
     </row>
     <row r="7">
       <c r="A7" s="75" t="s">
-        <v>5527</v>
+        <v>5529</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>5528</v>
+        <v>5530</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
     </row>
     <row r="8">
       <c r="A8" s="75" t="s">
-        <v>5529</v>
+        <v>5531</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>5530</v>
+        <v>5532</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>5531</v>
+        <v>5533</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>5532</v>
+        <v>5534</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
     </row>
     <row r="10">
       <c r="A10" s="75" t="s">
-        <v>5533</v>
+        <v>5535</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>5534</v>
+        <v>5536</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
     </row>
     <row r="11">
       <c r="A11" s="75" t="s">
-        <v>5535</v>
+        <v>5537</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>5534</v>
+        <v>5536</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
     </row>
     <row r="12">
       <c r="A12" s="75" t="s">
-        <v>5536</v>
+        <v>5538</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>5537</v>
+        <v>5539</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="65"/>
     </row>
     <row r="13">
       <c r="A13" s="75" t="s">
-        <v>5538</v>
+        <v>5540</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>5539</v>
+        <v>5541</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
     </row>
     <row r="14">
       <c r="A14" s="75" t="s">
-        <v>5540</v>
+        <v>5542</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>5541</v>
+        <v>5543</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
     </row>
     <row r="15">
       <c r="A15" s="75" t="s">
-        <v>5542</v>
+        <v>5544</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>5543</v>
+        <v>5545</v>
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
     </row>
     <row r="16">
       <c r="A16" s="75" t="s">
-        <v>5544</v>
+        <v>5546</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>5545</v>
+        <v>5547</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
     </row>
     <row r="17">
       <c r="A17" s="75" t="s">
-        <v>5546</v>
+        <v>5548</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>5547</v>
+        <v>5549</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
     </row>
     <row r="18">
       <c r="A18" s="75" t="s">
-        <v>5548</v>
+        <v>5550</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>5549</v>
+        <v>5551</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
     </row>
     <row r="19">
       <c r="A19" s="75" t="s">
-        <v>5550</v>
+        <v>5552</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>5551</v>
+        <v>5553</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
     </row>
     <row r="20">
       <c r="A20" s="75" t="s">
-        <v>5552</v>
+        <v>5554</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>5553</v>
+        <v>5555</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
     </row>
     <row r="21">
       <c r="A21" s="75" t="s">
-        <v>5554</v>
+        <v>5556</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>5555</v>
+        <v>5557</v>
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="65"/>
     </row>
     <row r="22">
       <c r="A22" s="75" t="s">
-        <v>5556</v>
+        <v>5558</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>5557</v>
+        <v>5559</v>
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="65"/>
     </row>
     <row r="23">
       <c r="A23" s="75" t="s">
-        <v>5558</v>
+        <v>5560</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>5557</v>
+        <v>5559</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
     </row>
     <row r="24">
       <c r="A24" s="75" t="s">
-        <v>5559</v>
+        <v>5561</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>5560</v>
+        <v>5562</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
     </row>
     <row r="25">
       <c r="A25" s="75" t="s">
-        <v>5561</v>
+        <v>5563</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>5562</v>
+        <v>5564</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
     </row>
     <row r="26">
       <c r="A26" s="75" t="s">
-        <v>5563</v>
+        <v>5565</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>5562</v>
+        <v>5564</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
     </row>
     <row r="27">
       <c r="A27" s="75" t="s">
-        <v>5564</v>
+        <v>5566</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>5565</v>
+        <v>5567</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
     </row>
     <row r="28">
       <c r="A28" s="75" t="s">
-        <v>5566</v>
+        <v>5568</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>5567</v>
+        <v>5569</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="65"/>
     </row>
     <row r="29">
       <c r="A29" s="75" t="s">
-        <v>5568</v>
+        <v>5570</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>5569</v>
+        <v>5571</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="65"/>
     </row>
     <row r="30">
       <c r="A30" s="75" t="s">
-        <v>5570</v>
+        <v>5572</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>5571</v>
+        <v>5573</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="65"/>
     </row>
     <row r="31">
       <c r="A31" s="75" t="s">
-        <v>5572</v>
+        <v>5574</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>5571</v>
+        <v>5573</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>5573</v>
+        <v>5575</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>5574</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="75" t="s">
-        <v>5575</v>
+        <v>5577</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>5576</v>
+        <v>5578</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>
     </row>
     <row r="33">
       <c r="A33" s="75" t="s">
-        <v>5577</v>
+        <v>5579</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>5578</v>
+        <v>5580</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="65"/>
     </row>
     <row r="34">
       <c r="A34" s="75" t="s">
-        <v>5579</v>
+        <v>5581</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>5580</v>
+        <v>5582</v>
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="65"/>
     </row>
     <row r="35">
       <c r="A35" s="75" t="s">
-        <v>5581</v>
+        <v>5583</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>5582</v>
+        <v>5584</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="65"/>
     </row>
     <row r="36">
       <c r="A36" s="75" t="s">
-        <v>5583</v>
+        <v>5585</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>5584</v>
+        <v>5586</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
@@ -57506,24 +57520,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="77" t="s">
-        <v>5585</v>
+        <v>5587</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>5586</v>
+        <v>5588</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>5587</v>
+        <v>5589</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>5588</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>1428</v>
@@ -57531,10 +57545,10 @@
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>1228</v>
@@ -57542,10 +57556,10 @@
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>1366</v>
@@ -57553,21 +57567,21 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>5591</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>1259</v>
@@ -57575,10 +57589,10 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>1501</v>
@@ -57586,10 +57600,10 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>1515</v>
@@ -57597,10 +57611,10 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>1457</v>
@@ -57608,10 +57622,10 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>1150</v>
@@ -57619,10 +57633,10 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>1420</v>
@@ -57630,10 +57644,10 @@
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>1300</v>
@@ -57641,10 +57655,10 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>1469</v>
@@ -57652,10 +57666,10 @@
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>1144</v>
@@ -57663,10 +57677,10 @@
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>1562</v>
@@ -57674,10 +57688,10 @@
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>5592</v>
+        <v>5594</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>5593</v>
+        <v>5595</v>
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="78" t="s">
@@ -57686,7 +57700,7 @@
     </row>
     <row r="17">
       <c r="D17" s="19" t="s">
-        <v>5591</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="18">
@@ -57736,10 +57750,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>5594</v>
+        <v>5596</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>8</v>
@@ -57748,7 +57762,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>6</v>
@@ -57756,95 +57770,95 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>5595</v>
+        <v>5597</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>5596</v>
+        <v>5598</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>5596</v>
+        <v>5598</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>5597</v>
+        <v>5599</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>5596</v>
+        <v>5598</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>5596</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="19" t="s">
-        <v>5598</v>
+        <v>5600</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>5598</v>
+        <v>5600</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>5598</v>
+        <v>5600</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>5598</v>
+        <v>5600</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>5598</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="19" t="s">
-        <v>5599</v>
+        <v>5601</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>5599</v>
+        <v>5601</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>5599</v>
+        <v>5601</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>5599</v>
+        <v>5601</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>5599</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="19" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>5601</v>
+        <v>5603</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>5601</v>
+        <v>5603</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>5601</v>
+        <v>5603</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>5601</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="19" t="s">
+        <v>5604</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>5604</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>5602</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>5602</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>5600</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>5602</v>
+        <v>5604</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>5602</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>5603</v>
+        <v>5605</v>
       </c>
     </row>
   </sheetData>
@@ -57864,12 +57878,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>5604</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>5605</v>
+        <v>5607</v>
       </c>
     </row>
   </sheetData>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -174,7 +174,7 @@
     <t>Salvaged Sun Key (removes Courage Crest from SW Sea)</t>
   </si>
   <si>
-    <t>Talked to Oshus after Temple of Courage</t>
+    <t>Talked to Oshus after Temple of Courage. Also, setting this causes linebeck to tell link to sail to the fog and causes the ship to break down and transition to the first person steering, consequently allowing access to the Ghost Ship dungeon.</t>
   </si>
   <si>
     <t>Set when the CS after obtaining the Phantom Hourglass has been watched.</t>

--- a/dev_sheet.xlsx
+++ b/dev_sheet.xlsx
@@ -13,11 +13,12 @@
     <sheet state="visible" name="Text" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Courses" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Stages &amp; Rooms" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Exits by ID" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Tricks &amp; Glitches" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Actors by Area" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="Shop variations" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="misc info" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="Events (Cutscenes)" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Exits by ID" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Tricks &amp; Glitches" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="Actors by Area" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="Shop variations" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="misc info" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7268" uniqueCount="5609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7278" uniqueCount="5618">
   <si>
     <t>Address</t>
   </si>
@@ -16364,6 +16365,33 @@
   </si>
   <si>
     <t>map19.bin</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Event/demo00.bin</t>
+  </si>
+  <si>
+    <t>Title screen</t>
+  </si>
+  <si>
+    <t>Event/demo01.bin</t>
+  </si>
+  <si>
+    <t>Opening CG (Niko slideshow + Pirate ship cutscene)</t>
+  </si>
+  <si>
+    <t>Event/demo02.bin</t>
+  </si>
+  <si>
+    <t>Tetra "help me" cutscene</t>
+  </si>
+  <si>
+    <t>Event/demo02_02.bin</t>
+  </si>
+  <si>
+    <t>Link wakes up on Mercay beach CS</t>
   </si>
   <si>
     <r>
@@ -17477,6 +17505,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -24679,6 +24711,78 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="37" t="s">
+        <v>5429</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="19" t="s">
+        <v>5430</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="s">
+        <v>5432</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>5434</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>5435</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="s">
+        <v>5436</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="37"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="64"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="14.25"/>
     <col customWidth="1" min="2" max="2" width="15.5"/>
     <col customWidth="1" min="3" max="3" width="12.38"/>
@@ -24692,7 +24796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="67" t="s">
-        <v>5429</v>
+        <v>5438</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -24726,28 +24830,28 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>5430</v>
+        <v>5439</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>5431</v>
+        <v>5440</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>5432</v>
+        <v>5441</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>5433</v>
+        <v>5442</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>5434</v>
+        <v>5443</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>5435</v>
+        <v>5444</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>5436</v>
+        <v>5445</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>5437</v>
+        <v>5446</v>
       </c>
       <c r="I2" s="70" t="s">
         <v>1679</v>
@@ -24776,16 +24880,16 @@
     </row>
     <row r="3">
       <c r="E3" s="71" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="G3" s="71" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>5440</v>
+        <v>5449</v>
       </c>
       <c r="I3" s="71"/>
       <c r="J3" s="72"/>
@@ -24812,16 +24916,16 @@
     </row>
     <row r="4">
       <c r="E4" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>5441</v>
+        <v>5450</v>
       </c>
       <c r="J4" s="69"/>
       <c r="K4" s="69"/>
@@ -24847,16 +24951,16 @@
     </row>
     <row r="5">
       <c r="E5" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>5440</v>
+        <v>5449</v>
       </c>
       <c r="J5" s="69"/>
       <c r="K5" s="69"/>
@@ -24882,16 +24986,16 @@
     </row>
     <row r="6">
       <c r="E6" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="G6" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>5443</v>
+        <v>5452</v>
       </c>
       <c r="J6" s="69"/>
       <c r="K6" s="69"/>
@@ -24917,16 +25021,16 @@
     </row>
     <row r="7">
       <c r="E7" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>5444</v>
+        <v>5453</v>
       </c>
       <c r="J7" s="69"/>
       <c r="K7" s="69"/>
@@ -24952,16 +25056,16 @@
     </row>
     <row r="8">
       <c r="E8" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>5445</v>
+        <v>5454</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>5446</v>
+        <v>5455</v>
       </c>
       <c r="J8" s="69"/>
       <c r="K8" s="69"/>
@@ -24987,16 +25091,16 @@
     </row>
     <row r="9">
       <c r="E9" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="G9" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>5447</v>
+        <v>5456</v>
       </c>
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
@@ -25023,7 +25127,7 @@
     </row>
     <row r="10">
       <c r="E10" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F10" s="68" t="s">
         <v>8</v>
@@ -25032,7 +25136,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>5447</v>
+        <v>5456</v>
       </c>
       <c r="I10" s="69"/>
       <c r="J10" s="69"/>
@@ -25059,7 +25163,7 @@
     </row>
     <row r="11">
       <c r="E11" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F11" s="68" t="s">
         <v>7</v>
@@ -25068,7 +25172,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>5447</v>
+        <v>5456</v>
       </c>
       <c r="I11" s="69"/>
       <c r="J11" s="69"/>
@@ -25095,16 +25199,16 @@
     </row>
     <row r="12">
       <c r="E12" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="G12" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>5448</v>
+        <v>5457</v>
       </c>
       <c r="I12" s="69"/>
       <c r="J12" s="69"/>
@@ -25131,7 +25235,7 @@
     </row>
     <row r="13">
       <c r="E13" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>6</v>
@@ -25140,7 +25244,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>5449</v>
+        <v>5458</v>
       </c>
       <c r="I13" s="69"/>
       <c r="J13" s="69"/>
@@ -25167,16 +25271,16 @@
     </row>
     <row r="14">
       <c r="E14" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>5445</v>
+        <v>5454</v>
       </c>
       <c r="G14" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="68" t="s">
-        <v>5450</v>
+        <v>5459</v>
       </c>
       <c r="I14" s="69"/>
       <c r="J14" s="69"/>
@@ -25203,16 +25307,16 @@
     </row>
     <row r="15">
       <c r="E15" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>5451</v>
+        <v>5460</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>5452</v>
+        <v>5461</v>
       </c>
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
@@ -25239,16 +25343,16 @@
     </row>
     <row r="16">
       <c r="E16" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>5453</v>
+        <v>5462</v>
       </c>
       <c r="G16" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>5454</v>
+        <v>5463</v>
       </c>
       <c r="I16" s="69"/>
       <c r="J16" s="69"/>
@@ -25275,16 +25379,16 @@
     </row>
     <row r="17">
       <c r="E17" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="G17" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>5455</v>
+        <v>5464</v>
       </c>
       <c r="I17" s="69"/>
       <c r="J17" s="69"/>
@@ -25311,7 +25415,7 @@
     </row>
     <row r="18">
       <c r="E18" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>8</v>
@@ -25320,7 +25424,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>5455</v>
+        <v>5464</v>
       </c>
       <c r="I18" s="69"/>
       <c r="J18" s="69"/>
@@ -25347,7 +25451,7 @@
     </row>
     <row r="19">
       <c r="E19" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F19" s="68" t="s">
         <v>7</v>
@@ -25356,7 +25460,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="68" t="s">
-        <v>5456</v>
+        <v>5465</v>
       </c>
       <c r="I19" s="69"/>
       <c r="J19" s="69"/>
@@ -25383,16 +25487,16 @@
     </row>
     <row r="20">
       <c r="E20" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="68" t="s">
-        <v>5455</v>
+        <v>5464</v>
       </c>
       <c r="I20" s="69"/>
       <c r="J20" s="69"/>
@@ -25419,7 +25523,7 @@
     </row>
     <row r="21">
       <c r="E21" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F21" s="68" t="s">
         <v>6</v>
@@ -25428,7 +25532,7 @@
         <v>7</v>
       </c>
       <c r="H21" s="68" t="s">
-        <v>5457</v>
+        <v>5466</v>
       </c>
       <c r="I21" s="69"/>
       <c r="J21" s="69"/>
@@ -25455,16 +25559,16 @@
     </row>
     <row r="22">
       <c r="E22" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>5445</v>
+        <v>5454</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="68" t="s">
-        <v>5458</v>
+        <v>5467</v>
       </c>
       <c r="I22" s="69"/>
       <c r="J22" s="69"/>
@@ -25491,16 +25595,16 @@
     </row>
     <row r="23">
       <c r="E23" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H23" s="68" t="s">
-        <v>5459</v>
+        <v>5468</v>
       </c>
       <c r="I23" s="69"/>
       <c r="J23" s="69"/>
@@ -25527,16 +25631,16 @@
     </row>
     <row r="24">
       <c r="E24" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F24" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H24" s="68" t="s">
-        <v>5459</v>
+        <v>5468</v>
       </c>
       <c r="I24" s="69"/>
       <c r="J24" s="69"/>
@@ -25563,16 +25667,16 @@
     </row>
     <row r="25">
       <c r="E25" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F25" s="68" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H25" s="68" t="s">
-        <v>5460</v>
+        <v>5469</v>
       </c>
       <c r="I25" s="69"/>
       <c r="J25" s="69"/>
@@ -25599,16 +25703,16 @@
     </row>
     <row r="26">
       <c r="E26" s="68" t="s">
-        <v>5438</v>
+        <v>5447</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H26" s="68" t="s">
-        <v>5461</v>
+        <v>5470</v>
       </c>
       <c r="I26" s="69"/>
       <c r="J26" s="69"/>
@@ -25635,12 +25739,12 @@
     </row>
     <row r="27">
       <c r="E27" s="68" t="s">
-        <v>5462</v>
+        <v>5471</v>
       </c>
       <c r="F27" s="69"/>
       <c r="G27" s="69"/>
       <c r="H27" s="68" t="s">
-        <v>5463</v>
+        <v>5472</v>
       </c>
       <c r="I27" s="69"/>
       <c r="J27" s="69"/>
@@ -25667,12 +25771,12 @@
     </row>
     <row r="28">
       <c r="E28" s="68" t="s">
-        <v>5464</v>
+        <v>5473</v>
       </c>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="68" t="s">
-        <v>5465</v>
+        <v>5474</v>
       </c>
       <c r="I28" s="69"/>
       <c r="J28" s="69"/>
@@ -25699,12 +25803,12 @@
     </row>
     <row r="29">
       <c r="E29" s="68" t="s">
-        <v>5466</v>
+        <v>5475</v>
       </c>
       <c r="F29" s="69"/>
       <c r="G29" s="69"/>
       <c r="H29" s="68" t="s">
-        <v>5467</v>
+        <v>5476</v>
       </c>
       <c r="I29" s="69"/>
       <c r="J29" s="69"/>
@@ -25731,12 +25835,12 @@
     </row>
     <row r="30">
       <c r="E30" s="68" t="s">
-        <v>5468</v>
+        <v>5477</v>
       </c>
       <c r="F30" s="69"/>
       <c r="G30" s="69"/>
       <c r="H30" s="68" t="s">
-        <v>5469</v>
+        <v>5478</v>
       </c>
       <c r="I30" s="69"/>
       <c r="J30" s="69"/>
@@ -25763,12 +25867,12 @@
     </row>
     <row r="31">
       <c r="E31" s="68" t="s">
-        <v>5470</v>
+        <v>5479</v>
       </c>
       <c r="F31" s="69"/>
       <c r="G31" s="69"/>
       <c r="H31" s="68" t="s">
-        <v>5471</v>
+        <v>5480</v>
       </c>
       <c r="I31" s="69"/>
       <c r="J31" s="69"/>
@@ -25795,12 +25899,12 @@
     </row>
     <row r="32">
       <c r="E32" s="68" t="s">
-        <v>5472</v>
+        <v>5481</v>
       </c>
       <c r="F32" s="69"/>
       <c r="G32" s="69"/>
       <c r="H32" s="68" t="s">
-        <v>5473</v>
+        <v>5482</v>
       </c>
       <c r="I32" s="69"/>
       <c r="J32" s="69"/>
@@ -25827,12 +25931,12 @@
     </row>
     <row r="33">
       <c r="E33" s="68" t="s">
-        <v>5474</v>
+        <v>5483</v>
       </c>
       <c r="F33" s="69"/>
       <c r="G33" s="69"/>
       <c r="H33" s="68" t="s">
-        <v>5475</v>
+        <v>5484</v>
       </c>
       <c r="I33" s="69"/>
       <c r="J33" s="69"/>
@@ -25859,12 +25963,12 @@
     </row>
     <row r="34">
       <c r="E34" s="68" t="s">
-        <v>5476</v>
+        <v>5485</v>
       </c>
       <c r="F34" s="69"/>
       <c r="G34" s="69"/>
       <c r="H34" s="68" t="s">
-        <v>5477</v>
+        <v>5486</v>
       </c>
       <c r="I34" s="69"/>
       <c r="J34" s="69"/>
@@ -25891,12 +25995,12 @@
     </row>
     <row r="35">
       <c r="E35" s="68" t="s">
-        <v>5478</v>
+        <v>5487</v>
       </c>
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
       <c r="H35" s="68" t="s">
-        <v>5479</v>
+        <v>5488</v>
       </c>
       <c r="I35" s="69"/>
       <c r="J35" s="69"/>
@@ -25923,7 +26027,7 @@
     </row>
     <row r="36">
       <c r="E36" s="68" t="s">
-        <v>5480</v>
+        <v>5489</v>
       </c>
       <c r="F36" s="69"/>
       <c r="G36" s="69"/>
@@ -25955,16 +26059,16 @@
     </row>
     <row r="37">
       <c r="E37" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H37" s="68" t="s">
-        <v>5482</v>
+        <v>5491</v>
       </c>
       <c r="I37" s="69"/>
       <c r="J37" s="69"/>
@@ -25991,16 +26095,16 @@
     </row>
     <row r="38">
       <c r="E38" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F38" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H38" s="68" t="s">
-        <v>5482</v>
+        <v>5491</v>
       </c>
       <c r="I38" s="69"/>
       <c r="J38" s="69"/>
@@ -26027,16 +26131,16 @@
     </row>
     <row r="39">
       <c r="E39" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>7</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H39" s="68" t="s">
-        <v>5483</v>
+        <v>5492</v>
       </c>
       <c r="I39" s="69"/>
       <c r="J39" s="69"/>
@@ -26063,16 +26167,16 @@
     </row>
     <row r="40">
       <c r="E40" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H40" s="68" t="s">
-        <v>5484</v>
+        <v>5493</v>
       </c>
       <c r="I40" s="69"/>
       <c r="J40" s="69"/>
@@ -26099,16 +26203,16 @@
     </row>
     <row r="41">
       <c r="E41" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="H41" s="68" t="s">
-        <v>5485</v>
+        <v>5494</v>
       </c>
       <c r="I41" s="69"/>
       <c r="J41" s="69"/>
@@ -26139,16 +26243,16 @@
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
       <c r="E42" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="G42" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="68" t="s">
-        <v>5486</v>
+        <v>5495</v>
       </c>
       <c r="I42" s="69"/>
       <c r="J42" s="69"/>
@@ -26179,7 +26283,7 @@
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F43" s="68" t="s">
         <v>8</v>
@@ -26188,7 +26292,7 @@
         <v>8</v>
       </c>
       <c r="H43" s="68" t="s">
-        <v>5486</v>
+        <v>5495</v>
       </c>
       <c r="I43" s="69"/>
       <c r="J43" s="69"/>
@@ -26219,7 +26323,7 @@
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
       <c r="E44" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F44" s="68" t="s">
         <v>7</v>
@@ -26228,7 +26332,7 @@
         <v>8</v>
       </c>
       <c r="H44" s="68" t="s">
-        <v>5487</v>
+        <v>5496</v>
       </c>
       <c r="I44" s="69"/>
       <c r="J44" s="69"/>
@@ -26259,16 +26363,16 @@
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="G45" s="68" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="68" t="s">
-        <v>5488</v>
+        <v>5497</v>
       </c>
       <c r="I45" s="69"/>
       <c r="J45" s="69"/>
@@ -26299,16 +26403,16 @@
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
       <c r="E46" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="G46" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="68" t="s">
-        <v>5489</v>
+        <v>5498</v>
       </c>
       <c r="I46" s="69"/>
       <c r="J46" s="69"/>
@@ -26339,7 +26443,7 @@
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
       <c r="E47" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F47" s="68" t="s">
         <v>8</v>
@@ -26348,7 +26452,7 @@
         <v>7</v>
       </c>
       <c r="H47" s="68" t="s">
-        <v>5489</v>
+        <v>5498</v>
       </c>
       <c r="I47" s="69"/>
       <c r="J47" s="69"/>
@@ -26379,7 +26483,7 @@
       <c r="C48" s="69"/>
       <c r="D48" s="69"/>
       <c r="E48" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F48" s="68" t="s">
         <v>7</v>
@@ -26388,7 +26492,7 @@
         <v>7</v>
       </c>
       <c r="H48" s="68" t="s">
-        <v>5490</v>
+        <v>5499</v>
       </c>
       <c r="I48" s="69"/>
       <c r="J48" s="69"/>
@@ -26419,16 +26523,16 @@
       <c r="C49" s="69"/>
       <c r="D49" s="69"/>
       <c r="E49" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="G49" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="68" t="s">
-        <v>5491</v>
+        <v>5500</v>
       </c>
       <c r="I49" s="69"/>
       <c r="J49" s="69"/>
@@ -26459,7 +26563,7 @@
       <c r="C50" s="69"/>
       <c r="D50" s="69"/>
       <c r="E50" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F50" s="68" t="s">
         <v>6</v>
@@ -26468,7 +26572,7 @@
         <v>7</v>
       </c>
       <c r="H50" s="68" t="s">
-        <v>5492</v>
+        <v>5501</v>
       </c>
       <c r="I50" s="69"/>
       <c r="J50" s="69"/>
@@ -26499,16 +26603,16 @@
       <c r="C51" s="69"/>
       <c r="D51" s="69"/>
       <c r="E51" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H51" s="68" t="s">
-        <v>5493</v>
+        <v>5502</v>
       </c>
       <c r="I51" s="69"/>
       <c r="J51" s="69"/>
@@ -26539,16 +26643,16 @@
       <c r="C52" s="69"/>
       <c r="D52" s="69"/>
       <c r="E52" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F52" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H52" s="68" t="s">
-        <v>5493</v>
+        <v>5502</v>
       </c>
       <c r="I52" s="69"/>
       <c r="J52" s="69"/>
@@ -26579,16 +26683,16 @@
       <c r="C53" s="69"/>
       <c r="D53" s="69"/>
       <c r="E53" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F53" s="68" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H53" s="68" t="s">
-        <v>5494</v>
+        <v>5503</v>
       </c>
       <c r="I53" s="69"/>
       <c r="J53" s="69"/>
@@ -26619,16 +26723,16 @@
       <c r="C54" s="69"/>
       <c r="D54" s="69"/>
       <c r="E54" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F54" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="G54" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H54" s="68" t="s">
-        <v>5495</v>
+        <v>5504</v>
       </c>
       <c r="I54" s="69"/>
       <c r="J54" s="69"/>
@@ -26659,16 +26763,16 @@
       <c r="C55" s="69"/>
       <c r="D55" s="69"/>
       <c r="E55" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F55" s="68" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H55" s="68" t="s">
-        <v>5496</v>
+        <v>5505</v>
       </c>
       <c r="I55" s="69"/>
       <c r="J55" s="69"/>
@@ -26699,16 +26803,16 @@
       <c r="C56" s="69"/>
       <c r="D56" s="69"/>
       <c r="E56" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F56" s="68" t="s">
-        <v>5445</v>
+        <v>5454</v>
       </c>
       <c r="G56" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H56" s="68" t="s">
-        <v>5497</v>
+        <v>5506</v>
       </c>
       <c r="I56" s="69"/>
       <c r="J56" s="69"/>
@@ -26739,16 +26843,16 @@
       <c r="C57" s="69"/>
       <c r="D57" s="69"/>
       <c r="E57" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F57" s="68" t="s">
+        <v>5460</v>
+      </c>
+      <c r="G57" s="68" t="s">
         <v>5451</v>
       </c>
-      <c r="G57" s="68" t="s">
-        <v>5442</v>
-      </c>
       <c r="H57" s="68" t="s">
-        <v>5498</v>
+        <v>5507</v>
       </c>
       <c r="I57" s="69"/>
       <c r="J57" s="69"/>
@@ -26779,16 +26883,16 @@
       <c r="C58" s="69"/>
       <c r="D58" s="69"/>
       <c r="E58" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F58" s="68" t="s">
-        <v>5453</v>
+        <v>5462</v>
       </c>
       <c r="G58" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H58" s="68" t="s">
-        <v>5499</v>
+        <v>5508</v>
       </c>
       <c r="I58" s="69"/>
       <c r="J58" s="69"/>
@@ -26819,16 +26923,16 @@
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
       <c r="E59" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F59" s="68" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="68" t="s">
-        <v>5442</v>
+        <v>5451</v>
       </c>
       <c r="H59" s="68" t="s">
-        <v>5500</v>
+        <v>5509</v>
       </c>
       <c r="I59" s="69"/>
       <c r="J59" s="69"/>
@@ -26859,14 +26963,14 @@
       <c r="C60" s="69"/>
       <c r="D60" s="69"/>
       <c r="E60" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F60" s="69"/>
       <c r="G60" s="68" t="s">
-        <v>5501</v>
+        <v>5510</v>
       </c>
       <c r="H60" s="68" t="s">
-        <v>5502</v>
+        <v>5511</v>
       </c>
       <c r="I60" s="69"/>
       <c r="J60" s="69"/>
@@ -26897,14 +27001,14 @@
       <c r="C61" s="69"/>
       <c r="D61" s="69"/>
       <c r="E61" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F61" s="69"/>
       <c r="G61" s="68" t="s">
-        <v>5503</v>
+        <v>5512</v>
       </c>
       <c r="H61" s="68" t="s">
-        <v>5504</v>
+        <v>5513</v>
       </c>
       <c r="I61" s="69"/>
       <c r="J61" s="69"/>
@@ -26935,14 +27039,14 @@
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
       <c r="E62" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F62" s="69"/>
       <c r="G62" s="68" t="s">
-        <v>5505</v>
+        <v>5514</v>
       </c>
       <c r="H62" s="68" t="s">
-        <v>5506</v>
+        <v>5515</v>
       </c>
       <c r="I62" s="69"/>
       <c r="J62" s="69"/>
@@ -26973,14 +27077,14 @@
       <c r="C63" s="69"/>
       <c r="D63" s="69"/>
       <c r="E63" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F63" s="69"/>
       <c r="G63" s="68" t="s">
-        <v>5507</v>
+        <v>5516</v>
       </c>
       <c r="H63" s="68" t="s">
-        <v>5508</v>
+        <v>5517</v>
       </c>
       <c r="I63" s="69"/>
       <c r="J63" s="69"/>
@@ -27011,14 +27115,14 @@
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F64" s="69"/>
       <c r="G64" s="68" t="s">
-        <v>5509</v>
+        <v>5518</v>
       </c>
       <c r="H64" s="68" t="s">
-        <v>5510</v>
+        <v>5519</v>
       </c>
       <c r="I64" s="69"/>
       <c r="J64" s="69"/>
@@ -27049,14 +27153,14 @@
       <c r="C65" s="69"/>
       <c r="D65" s="69"/>
       <c r="E65" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F65" s="69"/>
       <c r="G65" s="68" t="s">
-        <v>5511</v>
+        <v>5520</v>
       </c>
       <c r="H65" s="68" t="s">
-        <v>5512</v>
+        <v>5521</v>
       </c>
       <c r="I65" s="69"/>
       <c r="J65" s="69"/>
@@ -27087,16 +27191,16 @@
       <c r="C66" s="69"/>
       <c r="D66" s="69"/>
       <c r="E66" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F66" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="G66" s="68" t="s">
         <v>4</v>
       </c>
       <c r="H66" s="68" t="s">
-        <v>5513</v>
+        <v>5522</v>
       </c>
       <c r="I66" s="69"/>
       <c r="J66" s="69"/>
@@ -27127,7 +27231,7 @@
       <c r="C67" s="69"/>
       <c r="D67" s="69"/>
       <c r="E67" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F67" s="68" t="s">
         <v>8</v>
@@ -27136,7 +27240,7 @@
         <v>4</v>
       </c>
       <c r="H67" s="68" t="s">
-        <v>5514</v>
+        <v>5523</v>
       </c>
       <c r="I67" s="69"/>
       <c r="J67" s="69"/>
@@ -27167,14 +27271,14 @@
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
       <c r="E68" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F68" s="69"/>
       <c r="G68" s="68" t="s">
         <v>906</v>
       </c>
       <c r="H68" s="68" t="s">
-        <v>5515</v>
+        <v>5524</v>
       </c>
       <c r="I68" s="69"/>
       <c r="J68" s="69"/>
@@ -27205,16 +27309,16 @@
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
       <c r="E69" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>5439</v>
+        <v>5448</v>
       </c>
       <c r="G69" s="68" t="s">
         <v>907</v>
       </c>
       <c r="H69" s="68" t="s">
-        <v>5516</v>
+        <v>5525</v>
       </c>
       <c r="I69" s="69"/>
       <c r="J69" s="69"/>
@@ -27245,7 +27349,7 @@
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
       <c r="E70" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F70" s="68" t="s">
         <v>8</v>
@@ -27254,7 +27358,7 @@
         <v>907</v>
       </c>
       <c r="H70" s="68" t="s">
-        <v>5516</v>
+        <v>5525</v>
       </c>
       <c r="I70" s="69"/>
       <c r="J70" s="69"/>
@@ -27285,7 +27389,7 @@
       <c r="C71" s="69"/>
       <c r="D71" s="69"/>
       <c r="E71" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F71" s="68" t="s">
         <v>7</v>
@@ -27294,7 +27398,7 @@
         <v>907</v>
       </c>
       <c r="H71" s="68" t="s">
-        <v>5517</v>
+        <v>5526</v>
       </c>
       <c r="I71" s="69"/>
       <c r="J71" s="69"/>
@@ -27325,14 +27429,14 @@
       <c r="C72" s="69"/>
       <c r="D72" s="69"/>
       <c r="E72" s="68" t="s">
-        <v>5481</v>
+        <v>5490</v>
       </c>
       <c r="F72" s="69"/>
       <c r="G72" s="68" t="s">
         <v>908</v>
       </c>
       <c r="H72" s="68" t="s">
-        <v>5518</v>
+        <v>5527</v>
       </c>
       <c r="I72" s="69"/>
       <c r="J72" s="69"/>
@@ -57093,7 +57197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -57110,356 +57214,356 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="75" t="s">
-        <v>5519</v>
+        <v>5528</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>5520</v>
+        <v>5529</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
     </row>
     <row r="3">
       <c r="A3" s="75" t="s">
-        <v>5521</v>
+        <v>5530</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>5522</v>
+        <v>5531</v>
       </c>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
-        <v>5523</v>
+        <v>5532</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>5524</v>
+        <v>5533</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>5525</v>
+        <v>5534</v>
       </c>
       <c r="D4" s="65"/>
     </row>
     <row r="5">
       <c r="A5" s="75" t="s">
-        <v>5526</v>
+        <v>5535</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>5527</v>
+        <v>5536</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
     </row>
     <row r="6">
       <c r="A6" s="75" t="s">
-        <v>5528</v>
+        <v>5537</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>5529</v>
+        <v>5538</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
     </row>
     <row r="7">
       <c r="A7" s="75" t="s">
-        <v>5530</v>
+        <v>5539</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>5531</v>
+        <v>5540</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
     </row>
     <row r="8">
       <c r="A8" s="75" t="s">
-        <v>5532</v>
+        <v>5541</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>5533</v>
+        <v>5542</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>5534</v>
+        <v>5543</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>5535</v>
+        <v>5544</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
     </row>
     <row r="10">
       <c r="A10" s="75" t="s">
-        <v>5536</v>
+        <v>5545</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>5537</v>
+        <v>5546</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
     </row>
     <row r="11">
       <c r="A11" s="75" t="s">
-        <v>5538</v>
+        <v>5547</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>5537</v>
+        <v>5546</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
     </row>
     <row r="12">
       <c r="A12" s="75" t="s">
-        <v>5539</v>
+        <v>5548</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>5540</v>
+        <v>5549</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="65"/>
     </row>
     <row r="13">
       <c r="A13" s="75" t="s">
-        <v>5541</v>
+        <v>5550</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>5542</v>
+        <v>5551</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
     </row>
     <row r="14">
       <c r="A14" s="75" t="s">
-        <v>5543</v>
+        <v>5552</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>5544</v>
+        <v>5553</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
     </row>
     <row r="15">
       <c r="A15" s="75" t="s">
-        <v>5545</v>
+        <v>5554</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>5546</v>
+        <v>5555</v>
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
     </row>
     <row r="16">
       <c r="A16" s="75" t="s">
-        <v>5547</v>
+        <v>5556</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>5548</v>
+        <v>5557</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
     </row>
     <row r="17">
       <c r="A17" s="75" t="s">
-        <v>5549</v>
+        <v>5558</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>5550</v>
+        <v>5559</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
     </row>
     <row r="18">
       <c r="A18" s="75" t="s">
-        <v>5551</v>
+        <v>5560</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>5552</v>
+        <v>5561</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
     </row>
     <row r="19">
       <c r="A19" s="75" t="s">
-        <v>5553</v>
+        <v>5562</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>5554</v>
+        <v>5563</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
     </row>
     <row r="20">
       <c r="A20" s="75" t="s">
-        <v>5555</v>
+        <v>5564</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>5556</v>
+        <v>5565</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
     </row>
     <row r="21">
       <c r="A21" s="75" t="s">
-        <v>5557</v>
+        <v>5566</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>5558</v>
+        <v>5567</v>
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="65"/>
     </row>
     <row r="22">
       <c r="A22" s="75" t="s">
-        <v>5559</v>
+        <v>5568</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>5560</v>
+        <v>5569</v>
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="65"/>
     </row>
     <row r="23">
       <c r="A23" s="75" t="s">
-        <v>5561</v>
+        <v>5570</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>5560</v>
+        <v>5569</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
     </row>
     <row r="24">
       <c r="A24" s="75" t="s">
-        <v>5562</v>
+        <v>5571</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>5563</v>
+        <v>5572</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
     </row>
     <row r="25">
       <c r="A25" s="75" t="s">
-        <v>5564</v>
+        <v>5573</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>5565</v>
+        <v>5574</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
     </row>
     <row r="26">
       <c r="A26" s="75" t="s">
-        <v>5566</v>
+        <v>5575</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>5565</v>
+        <v>5574</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
     </row>
     <row r="27">
       <c r="A27" s="75" t="s">
-        <v>5567</v>
+        <v>5576</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>5568</v>
+        <v>5577</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
     </row>
     <row r="28">
       <c r="A28" s="75" t="s">
-        <v>5569</v>
+        <v>5578</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>5570</v>
+        <v>5579</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="65"/>
     </row>
     <row r="29">
       <c r="A29" s="75" t="s">
-        <v>5571</v>
+        <v>5580</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>5572</v>
+        <v>5581</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="65"/>
     </row>
     <row r="30">
       <c r="A30" s="75" t="s">
-        <v>5573</v>
+        <v>5582</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>5574</v>
+        <v>5583</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="65"/>
     </row>
     <row r="31">
       <c r="A31" s="75" t="s">
-        <v>5575</v>
+        <v>5584</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>5574</v>
+        <v>5583</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>5576</v>
+        <v>5585</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>5577</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="75" t="s">
-        <v>5578</v>
+        <v>5587</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>5579</v>
+        <v>5588</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>
     </row>
     <row r="33">
       <c r="A33" s="75" t="s">
-        <v>5580</v>
+        <v>5589</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>5581</v>
+        <v>5590</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="65"/>
     </row>
     <row r="34">
       <c r="A34" s="75" t="s">
-        <v>5582</v>
+        <v>5591</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>5583</v>
+        <v>5592</v>
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="65"/>
     </row>
     <row r="35">
       <c r="A35" s="75" t="s">
-        <v>5584</v>
+        <v>5593</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>5585</v>
+        <v>5594</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="65"/>
     </row>
     <row r="36">
       <c r="A36" s="75" t="s">
-        <v>5586</v>
+        <v>5595</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>5587</v>
+        <v>5596</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
@@ -57509,7 +57613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -57525,24 +57629,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="77" t="s">
-        <v>5588</v>
+        <v>5597</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>5589</v>
+        <v>5598</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>5590</v>
+        <v>5599</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>5591</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>1430</v>
@@ -57550,10 +57654,10 @@
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>1230</v>
@@ -57561,10 +57665,10 @@
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>1368</v>
@@ -57572,21 +57676,21 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>5594</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>1261</v>
@@ -57594,10 +57698,10 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>1503</v>
@@ -57605,10 +57709,10 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>1517</v>
@@ -57616,10 +57720,10 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>1459</v>
@@ -57627,10 +57731,10 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>1152</v>
@@ -57638,10 +57742,10 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>1422</v>
@@ -57649,10 +57753,10 @@
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>1302</v>
@@ -57660,10 +57764,10 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>1471</v>
@@ -57671,10 +57775,10 @@
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>1146</v>
@@ -57682,10 +57786,10 @@
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>5592</v>
+        <v>5601</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>5593</v>
+        <v>5602</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>1564</v>
@@ -57693,10 +57797,10 @@
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>5595</v>
+        <v>5604</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>5596</v>
+        <v>5605</v>
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="78" t="s">
@@ -57705,7 +57809,7 @@
     </row>
     <row r="17">
       <c r="D17" s="19" t="s">
-        <v>5594</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="18">
@@ -57736,134 +57840,6 @@
     <row r="23">
       <c r="D23" s="19" t="s">
         <v>1219</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="37" t="s">
-        <v>5597</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>5439</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>5442</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="19" t="s">
-        <v>5598</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>5599</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>5599</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>5600</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>5599</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="19" t="s">
-        <v>5601</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>5601</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>5601</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>5601</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>5601</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="19" t="s">
-        <v>5602</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>5602</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>5602</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>5602</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>5602</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="19" t="s">
-        <v>5603</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>5604</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>5604</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>5604</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>5604</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="19" t="s">
-        <v>5605</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>5605</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>5603</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>5605</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>5606</v>
       </c>
     </row>
   </sheetData>
@@ -57882,13 +57858,141 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>5607</v>
+      <c r="A1" s="37" t="s">
+        <v>5606</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>5448</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>5451</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
+        <v>5607</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>5608</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5608</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>5609</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>5608</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="19" t="s">
+        <v>5610</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>5610</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>5610</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>5610</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="19" t="s">
+        <v>5611</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>5611</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>5611</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>5611</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="19" t="s">
+        <v>5612</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>5613</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>5613</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>5613</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="19" t="s">
+        <v>5614</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>5614</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>5612</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>5614</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
+        <v>5615</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="s">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="19" t="s">
+        <v>5617</v>
       </c>
     </row>
   </sheetData>
